--- a/bases/UPDATE/SCN/inflacion.xlsx
+++ b/bases/UPDATE/SCN/inflacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\Ricardo Cantú\SimuladorCIEP\5.3\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80A2A9D-08AD-4CB2-9B5E-6CE8C6F50001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="inflacion" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1969&amp;aamax=9999&amp;cveser=,628194,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\Admin\Desktop\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="8" background="1" saveData="1">
+    <webPr consecutive="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1969&amp;aamax=9999&amp;cveser=,628194,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -2021,7 +2022,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 30/08/2022 0:15:01</t>
+    <t>Fecha de consulta: 31/08/2022 14:18:06</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2091,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2345,7 +2346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2460,6 +2461,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2483,29 +2555,29 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2513,56 +2585,74 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2582,7 +2672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2598,7 +2688,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2610,7 +2700,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2657,6 +2747,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2692,6 +2799,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2846,5204 +2970,5204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B652"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.06640625" customWidth="1"/>
-    <col min="2" max="2" width="32.73046875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1.159484238536E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1.1636457741601E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1.1647943020915E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1.1679513291063001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1.1679513291063001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>1.1721133828656E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>1.1765624389987E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>1.1778544681171E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>1.1889050989392001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>1.2013912601418E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>1.2015347613287999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>1.2105763749324001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>1.2197614897229E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>1.219617988536E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>1.223206037322E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>1.2247845508293999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>1.2273680910060999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>1.2348311911022E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>1.240858760818E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>1.2465993280846001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>1.2496133719725E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>1.2500438756084999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>1.2567894695444001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>1.2674095966554E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>1.279895757858E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>1.2852058214134999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>1.2900853812578999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>1.2966874739317E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>1.2994145153705E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>1.3052985838241001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>1.3042940752149E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>1.3162057133842E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>1.3205112683304E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>1.3218032974488E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>1.3239558159294E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>1.3302709061542E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>1.3361549746078E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>1.3403170283671001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>1.3476366272012E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>1.3561042358315E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>1.3588307592102999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>1.3688768814232E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>1.3740439617765001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>1.3830855753801E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>1.3894001475448999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>1.3904046561542E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>1.3994462697578E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>1.4041828464751001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>1.42456209335E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>1.4363307483171999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>1.4489604107068E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>1.4719231977583E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>1.4875669040357E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>1.4997655446541001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>1.5382285367960999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>1.5629138566770999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>1.6000848196255999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>1.6206080857473E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>1.640557346971E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>1.7042791457570001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>1.7652744212393E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>1.8051724256265E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>1.8190941171344E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>1.8437789189555E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>1.8582746153615E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>1.8766448450177001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>1.9037696858284998E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>1.9238624482391001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>1.9456772254943001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>1.9842832007633E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>2.0393944077167998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>2.0553251164433E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="6">
         <v>2.0815889498316999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="6">
         <v>2.0930700842899001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>2.1062737516527E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>2.1240699763357001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>2.1524868462647999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>2.1890838043151999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>2.2065930265491002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>2.2256812804255E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>2.2418984735410999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>2.2533801260593001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>2.2691673335988E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="6">
         <v>2.2876810644420001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>2.3318846237755E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>2.3755141782108E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>2.3987639677113998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>2.4155556838601999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="6">
         <v>2.4324909011960001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="6">
         <v>2.4422500208846998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>2.4629167882684998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="6">
         <v>2.4864535802933001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>2.5712731681591001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>2.7160830049132001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>2.8387910619629E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="6">
         <v>2.9099759608450002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="6">
         <v>3.0026891525181999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="6">
         <v>3.068994491556E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>3.1225266669420999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="6">
         <v>3.1697442701634999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="6">
         <v>3.1975866170592997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="6">
         <v>3.2367671152864E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="6">
         <v>3.2733645913966998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="6">
         <v>3.3405309377817001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="6">
         <v>3.3998041984945E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="6">
         <v>3.4257810294338997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="6">
         <v>3.4632389948314003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="6">
         <v>3.5111741042130003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="6">
         <v>3.5892480982931997E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="6">
         <v>3.6407712564607002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="6">
         <v>3.6786597255693998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="6">
         <v>3.7195627566259999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="6">
         <v>3.7560162134143003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="6">
         <v>3.8076828728438997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="6">
         <v>3.8722661971122001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="6">
         <v>3.9108726903659997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="6">
         <v>3.9555067534107001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="6">
         <v>4.0034418627922001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="6">
         <v>4.0446313782378999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="6">
         <v>4.0789323166206003E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="6">
         <v>4.2237421533746003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125" s="1" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="6">
         <v>4.2844504263326998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="6">
         <v>4.3425751591141003E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="6">
         <v>4.3814686549672001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="6">
         <v>4.4388763996483997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="6">
         <v>4.4881030200883E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="6">
         <v>4.5424962028216997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131" s="1" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="6">
         <v>4.6112415808491999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="6">
         <v>4.6677878001232E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133" s="1" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="6">
         <v>4.7493063416521E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134" s="1" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="6">
         <v>4.8104451183965002E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="6">
         <v>4.8955511907265999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136" s="1" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="6">
         <v>5.1342222289500999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137" s="1" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="6">
         <v>5.2529117335026E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="6">
         <v>5.3609811109441997E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="6">
         <v>5.4546982931667001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140" s="1" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="6">
         <v>5.5436799348668998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="6">
         <v>5.6536148282649003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142" s="1" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="6">
         <v>5.8114848311197002E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="6">
         <v>5.9318963504416997E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="6">
         <v>5.9977717037531998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="6">
         <v>6.0886183433500003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="6">
         <v>6.1942481999368998E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="6">
         <v>6.3567107601118E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="6">
         <v>6.5615113636636996E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="6">
         <v>6.7226824128553006E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="6">
         <v>6.8664872228650004E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="6">
         <v>7.0213436998917994E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="6">
         <v>7.1275470432417998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="6">
         <v>7.2271488120529997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="6">
         <v>7.3544494264979998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="6">
         <v>7.5060048571127996E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="6">
         <v>7.6456481314983005E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="6">
         <v>7.8152867893202999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158" s="1" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="6">
         <v>7.9656936920788998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="6">
         <v>8.1801099141324995E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="6">
         <v>8.5865535761614001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="6">
         <v>8.9239653758488996E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162" s="1" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="6">
         <v>9.2498950048831005E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="6">
         <v>9.7512043769908005E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164" s="1" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="6">
         <v>0.102993008486838</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A165" s="1" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="6">
         <v>0.107954431404381</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166" s="1" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166" s="6">
         <v>0.113517202183875</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167" s="1" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167" s="6">
         <v>0.12625587888394699</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168" s="6">
         <v>0.13299549962287399</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169" s="6">
         <v>0.139890117231354</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="6">
         <v>0.14696269708666401</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171" s="6">
         <v>0.162656416386952</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172" s="6">
         <v>0.180355086174049</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173" s="6">
         <v>0.19003395919601501</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="6">
         <v>0.199232046112296</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175" s="6">
         <v>0.21184586120184501</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="6">
         <v>0.22103390303203299</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177" s="6">
         <v>0.22940388942168999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="6">
         <v>0.24074613337865899</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="1">
+      <c r="B179" s="6">
         <v>0.25009060709102099</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="6">
         <v>0.25778749500495801</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181" s="6">
         <v>0.26634117851057798</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="6">
         <v>0.28198323736778103</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="6">
         <v>0.29404738058026297</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="6">
         <v>0.31272771793151599</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" s="1" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="6">
         <v>0.32923231761073402</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186" s="6">
         <v>0.34330428133376401</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="1" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="6">
         <v>0.358155549984224</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="6">
         <v>0.37003168586303298</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="1" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189" s="6">
         <v>0.38342337604798998</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" s="1" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190" s="6">
         <v>0.395992705756055</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="1" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191" s="6">
         <v>0.40724883861334799</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="1" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="6">
         <v>0.41938043776519002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="1" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="6">
         <v>0.43403365399663402</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194" s="6">
         <v>0.44892941320917701</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" s="1" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195" s="6">
         <v>0.46799581549371999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196" s="6">
         <v>0.50271144651646704</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="6">
         <v>0.52359622178541398</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="6">
         <v>0.54388539960334203</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199" s="6">
         <v>0.56062106216569496</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" s="1" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="6">
         <v>0.57390224086258201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201" s="6">
         <v>0.58827559343184699</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="6">
         <v>0.60876282366954104</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="6">
         <v>0.63537685186609805</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" s="1" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="6">
         <v>0.66075231421359504</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A205" s="1" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="6">
         <v>0.68585222311662397</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="6">
         <v>0.71749512498948298</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A207" s="1" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207" s="6">
         <v>0.76634013058852701</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A208" s="1" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="6">
         <v>0.834092231384849</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A209" s="1" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="6">
         <v>0.87117447743779697</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A210" s="1" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210" s="6">
         <v>0.91166671679412803</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="6">
         <v>0.95926311145802001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212" s="1" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212" s="6">
         <v>1.0125700987086099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213" s="6">
         <v>1.0775666443363501</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A214" s="1" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="1">
+      <c r="B214" s="6">
         <v>1.13133289250856</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A215" s="1" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215" s="6">
         <v>1.2215312432740899</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A216" s="1" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216" s="6">
         <v>1.2948116693731599</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A217" s="1" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217" s="6">
         <v>1.36882402945339</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A218" s="1" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218" s="6">
         <v>1.4613043243419099</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219" s="6">
         <v>1.5767346258639301</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A220" s="1" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220" s="6">
         <v>1.7044012927955401</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221" s="6">
         <v>1.82738639011058</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222" s="6">
         <v>1.94815269938473</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A223" s="1" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223" s="6">
         <v>2.1186064597271499</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A224" s="1" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224" s="6">
         <v>2.2783250588421802</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A225" s="1" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225" s="6">
         <v>2.4431457328031998</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A226" s="1" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226" s="6">
         <v>2.64102152651602</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A227" s="1" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227" s="6">
         <v>2.8568715486409899</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A228" s="1" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228" s="6">
         <v>3.0450813948028701</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A229" s="1" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229" s="6">
         <v>3.2988446335319099</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A230" s="1" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230" s="6">
         <v>3.5605114226673802</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A231" s="1" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231" s="6">
         <v>4.0863924586010301</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232" s="6">
         <v>4.7182459356504296</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A233" s="1" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233" s="6">
         <v>5.1117830400722699</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A234" s="1" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234" s="6">
         <v>5.3735474255859703</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A235" s="1" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235" s="6">
         <v>5.5389407368005896</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A236" s="1" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236" s="6">
         <v>5.6461086882159401</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A237" s="1" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237" s="6">
         <v>5.7612921365391498</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A238" s="1" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238" s="6">
         <v>5.8574565431643997</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A239" s="1" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239" s="6">
         <v>5.9113433427301798</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A240" s="1" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240" s="6">
         <v>5.9451390220791502</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A241" s="1" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241" s="6">
         <v>5.99048648308192</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A242" s="1" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242" s="6">
         <v>6.0706543465480198</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A243" s="1" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243" s="6">
         <v>6.1973163857180404</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A244" s="1" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244" s="6">
         <v>6.3490237929630702</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A245" s="1" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245" s="6">
         <v>6.4351835425093196</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A246" s="1" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246" s="6">
         <v>6.5049448988288097</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A247" s="1" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247" s="6">
         <v>6.6022244447037099</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A248" s="1" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248" s="6">
         <v>6.6930987691500397</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A249" s="1" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249" s="6">
         <v>6.7743846367104403</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A250" s="1" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250" s="6">
         <v>6.8421482176047199</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A251" s="1" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251" s="6">
         <v>6.90733277574674</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A252" s="1" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252" s="6">
         <v>6.9733927950019501</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A253" s="1" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253" s="6">
         <v>7.0765250152232699</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A254" s="1" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254" s="6">
         <v>7.1758554371589298</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A255" s="1" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255" s="6">
         <v>7.4180295787321997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A256" s="1" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256" s="6">
         <v>7.7760373017278699</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A257" s="1" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257" s="6">
         <v>7.9521198537757698</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A258" s="1" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258" s="6">
         <v>8.0923099196601296</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A259" s="1" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259" s="6">
         <v>8.21547154939074</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A260" s="1" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260" s="6">
         <v>8.3588376756723708</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A261" s="1" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261" s="6">
         <v>8.5429385894720191</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A262" s="1" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262" s="6">
         <v>8.6987348337264905</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A263" s="1" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263" s="6">
         <v>8.8469504416048093</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A264" s="1" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264" s="6">
         <v>8.9730613687053005</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A265" s="1" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265" s="6">
         <v>9.1020598876472398</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A266" s="1" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266" s="6">
         <v>9.3437231026759395</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A267" s="1" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267" s="6">
         <v>9.6382139538614098</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A268" s="1" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268" s="6">
         <v>9.8838798948013693</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A269" s="1" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269" s="6">
         <v>10.0564247219094</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A270" s="1" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270" s="6">
         <v>10.199839643789399</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A271" s="1" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271" s="6">
         <v>10.3066875511982</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A272" s="1" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272" s="6">
         <v>10.407441671110799</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A273" s="1" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273" s="6">
         <v>10.516647583476299</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A274" s="1" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274" s="6">
         <v>10.609584269261999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A275" s="1" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275" s="6">
         <v>10.683422977311601</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A276" s="1" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276" s="6">
         <v>10.7898503743119</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A277" s="1" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277" s="6">
         <v>10.915342738584</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A278" s="1" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278" s="6">
         <v>11.1863740967847</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279" s="6">
         <v>11.449679866825701</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A280" s="1" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280" s="6">
         <v>11.657778465389301</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A281" s="1" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281" s="6">
         <v>11.795900435066001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A282" s="1" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282" s="6">
         <v>11.915947720290401</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A283" s="1" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283" s="6">
         <v>12.0221713196406</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A284" s="1" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284" s="6">
         <v>12.101437891772299</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A285" s="1" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285" s="6">
         <v>12.1833451921855</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A286" s="1" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286" s="6">
         <v>12.260272414520101</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A287" s="1" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287" s="6">
         <v>12.335592231401399</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A288" s="1" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288" s="6">
         <v>12.4428965245267</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A289" s="1" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289" s="6">
         <v>12.532493537791501</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A290" s="1" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290" s="6">
         <v>12.6366203406883</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A291" s="1" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291" s="6">
         <v>12.816553481441201</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A292" s="1" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="6">
         <v>12.9773197638673</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A293" s="1" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="6">
         <v>13.083345310799199</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A294" s="1" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="6">
         <v>13.159593689428499</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A295" s="1" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="6">
         <v>13.2354804035143</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A296" s="1" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="6">
         <v>13.311137489729701</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A297" s="1" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="6">
         <v>13.3857971232443</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A298" s="1" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="6">
         <v>13.4501234404208</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A299" s="1" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="6">
         <v>13.522112194854699</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A300" s="1" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="6">
         <v>13.622260672230899</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A301" s="1" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="6">
         <v>13.677973025024</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A302" s="1" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="6">
         <v>13.7383023563383</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A303" s="1" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="6">
         <v>13.8430548971257</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A304" s="1" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="6">
         <v>13.9503749805667</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A305" s="1" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="6">
         <v>14.022124062044</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A306" s="1" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="6">
         <v>14.0942247629785</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A307" s="1" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="6">
         <v>14.163251304931901</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A308" s="1" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="6">
         <v>14.231682244252999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A309" s="1" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="6">
         <v>14.302894568964501</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A310" s="1" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="6">
         <v>14.3663267698675</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A311" s="1" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="6">
         <v>14.433286645444401</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A312" s="1" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="6">
         <v>14.535936644548199</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A313" s="1" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="6">
         <v>14.6122453040552</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A314" s="1" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="6">
         <v>14.690360856448001</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A315" s="1" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="6">
         <v>14.819204368159101</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A316" s="1" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="6">
         <v>15.3769909442995</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A317" s="1" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="6">
         <v>16.0287073487094</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A318" s="1" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="6">
         <v>16.973617202950098</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A319" s="1" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="6">
         <v>18.326133255311301</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A320" s="1" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="6">
         <v>19.092090190991801</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A321" s="1" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="6">
         <v>19.698024268685</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A322" s="1" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="6">
         <v>20.099588355293999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A323" s="1" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="6">
         <v>20.432981265710101</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A324" s="1" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="6">
         <v>20.8556425301303</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A325" s="1" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="6">
         <v>21.284762116614601</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A326" s="1" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="6">
         <v>21.809608384347801</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A327" s="1" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="6">
         <v>22.520167271191902</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A328" s="1" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="6">
         <v>23.3297537612935</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A329" s="1" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="6">
         <v>23.8742620287622</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A330" s="1" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="6">
         <v>24.399825880353401</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A331" s="1" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="6">
         <v>25.0934496172036</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A332" s="1" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="6">
         <v>25.550842302962199</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A333" s="1" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="6">
         <v>25.966901728547398</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A334" s="1" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="6">
         <v>26.336030688063399</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A335" s="1" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="6">
         <v>26.6860717149303</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A336" s="1" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="6">
         <v>27.1127514903968</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A337" s="1" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="6">
         <v>27.451167539620801</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A338" s="1" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="6">
         <v>27.867083448433601</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A339" s="1" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="6">
         <v>28.7593364537036</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A340" s="1" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="6">
         <v>29.4988860288599</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A341" s="1" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="6">
         <v>29.994598091509399</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A342" s="1" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342" s="6">
         <v>30.367889073662798</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A343" s="1" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343" s="6">
         <v>30.695971811728501</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A344" s="1" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344" s="6">
         <v>30.976119445603</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A345" s="1" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345" s="6">
         <v>31.2509569123077</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A346" s="1" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346" s="6">
         <v>31.523211040861099</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A347" s="1" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347" s="6">
         <v>31.803502196687798</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348" s="6">
         <v>32.199612588994199</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349" s="6">
         <v>32.456940823077602</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350" s="6">
         <v>32.820042010844297</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A351" s="1" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351" s="6">
         <v>33.2798745076214</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A352" s="1" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352" s="6">
         <v>34.003924110859998</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A353" s="1" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353" s="6">
         <v>34.599237843852499</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A354" s="1" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354" s="6">
         <v>35.004533397603502</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A355" s="1" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355" s="6">
         <v>35.332042063402199</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A356" s="1" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356" s="6">
         <v>35.613481363762098</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A357" s="1" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357" s="6">
         <v>36.034420411382101</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A358" s="1" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358" s="6">
         <v>36.381878110459603</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A359" s="1" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359" s="6">
         <v>36.731632103784001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A360" s="1" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360" s="6">
         <v>37.327376387090602</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A361" s="1" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361" s="6">
         <v>37.862268927258199</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A362" s="1" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362" s="6">
         <v>38.532786225593497</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A363" s="1" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363" s="6">
         <v>39.472974324693503</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A364" s="1" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364" s="6">
         <v>40.469770280540402</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A365" s="1" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365" s="6">
         <v>41.013642812363997</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A366" s="1" t="s">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366" s="6">
         <v>41.394683783066903</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A367" s="1" t="s">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367" s="6">
         <v>41.774576609236597</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A368" s="1" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368" s="6">
         <v>42.025877076750398</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A369" s="1" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369" s="6">
         <v>42.302006204759103</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A370" s="1" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370" s="6">
         <v>42.581579771548</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A371" s="1" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371" s="6">
         <v>42.821255256238402</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A372" s="1" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372" s="6">
         <v>43.235018392756501</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A373" s="1" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373" s="6">
         <v>43.508851226518999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A374" s="1" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374" s="6">
         <v>43.895776447019799</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A375" s="1" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375" s="6">
         <v>44.335516388565999</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A376" s="1" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376" s="6">
         <v>44.930830116377898</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A377" s="1" t="s">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377" s="6">
         <v>45.3293803145216</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A378" s="1" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378" s="6">
         <v>45.580680782035401</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A379" s="1" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379" s="6">
         <v>45.840018271641902</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A380" s="1" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380" s="6">
         <v>46.011379073728897</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A381" s="1" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381" s="6">
         <v>46.283920241006101</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A382" s="1" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382" s="6">
         <v>46.464466209718097</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A383" s="1" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383" s="6">
         <v>46.719785188278301</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A384" s="1" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384" s="6">
         <v>47.0610716040147</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A385" s="1" t="s">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385" s="6">
         <v>47.385135825853403</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A386" s="1" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386" s="6">
         <v>47.790287862832798</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A387" s="1" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387" s="6">
         <v>48.307671180741004</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A388" s="1" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388" s="6">
         <v>48.575476247934098</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A389" s="1" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389" s="6">
         <v>48.543328159564901</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A390" s="1" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390" s="6">
         <v>48.850887781724403</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A391" s="1" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391" s="6">
         <v>49.0973086323825</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A392" s="1" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392" s="6">
         <v>49.209970463625403</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A393" s="1" t="s">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393" s="6">
         <v>49.326363767191502</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A394" s="1" t="s">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394" s="6">
         <v>49.198201964030297</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A395" s="1" t="s">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395" s="6">
         <v>49.489687547185802</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A396" s="1" t="s">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396" s="6">
         <v>49.950381149772397</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A397" s="1" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397" s="6">
         <v>50.176135367753503</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A398" s="1" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398" s="6">
         <v>50.3651489088722</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A399" s="1" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399" s="6">
         <v>50.434898785092997</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A400" s="1" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400" s="6">
         <v>50.900472009715898</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A401" s="1" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401" s="6">
         <v>50.867749849080496</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A402" s="1" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B402" s="1">
+      <c r="B402" s="6">
         <v>51.127948444496397</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A403" s="1" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="B403" s="1">
+      <c r="B403" s="6">
         <v>51.407234972561497</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A404" s="1" t="s">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B404" s="1">
+      <c r="B404" s="6">
         <v>51.511429231397599</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A405" s="1" t="s">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B405" s="1">
+      <c r="B405" s="6">
         <v>51.762586176959203</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A406" s="1" t="s">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B406" s="1">
+      <c r="B406" s="6">
         <v>51.911181353361798</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A407" s="1" t="s">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B407" s="1">
+      <c r="B407" s="6">
         <v>52.108560301264298</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A408" s="1" t="s">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B408" s="1">
+      <c r="B408" s="6">
         <v>52.4219835649941</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A409" s="1" t="s">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="B409" s="1">
+      <c r="B409" s="6">
         <v>52.653036086685702</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A410" s="1" t="s">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B410" s="1">
+      <c r="B410" s="6">
         <v>53.0788772813736</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A411" s="1" t="s">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="B411" s="1">
+      <c r="B411" s="6">
         <v>53.309929803065103</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A412" s="1" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B412" s="1">
+      <c r="B412" s="6">
         <v>53.525440675315501</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A413" s="1" t="s">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B413" s="1">
+      <c r="B413" s="6">
         <v>53.674122454969499</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A414" s="1" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B414" s="1">
+      <c r="B414" s="6">
         <v>54.012930412786197</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A415" s="1" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B415" s="6">
         <v>54.105144199470402</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A416" s="1" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B416" s="6">
         <v>53.9305596707487</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A417" s="1" t="s">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B417" s="6">
         <v>53.975112399146603</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A418" s="1" t="s">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B418" s="6">
         <v>54.053338701333502</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A419" s="1" t="s">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="B419" s="1">
+      <c r="B419" s="6">
         <v>54.215489910502399</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A420" s="1" t="s">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B420" s="1">
+      <c r="B420" s="6">
         <v>54.538238163897297</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A421" s="1" t="s">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B421" s="1">
+      <c r="B421" s="6">
         <v>54.738207386706698</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A422" s="1" t="s">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B422" s="1">
+      <c r="B422" s="6">
         <v>55.192541605369897</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A423" s="1" t="s">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="B423" s="1">
+      <c r="B423" s="6">
         <v>55.429810786838097</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A424" s="1" t="s">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B424" s="1">
+      <c r="B424" s="6">
         <v>55.774317349450101</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A425" s="1" t="s">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B425" s="1">
+      <c r="B425" s="6">
         <v>56.107944757453097</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A426" s="1" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B426" s="1">
+      <c r="B426" s="6">
         <v>56.2980709356166</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A427" s="1" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B427" s="1">
+      <c r="B427" s="6">
         <v>56.383031952561801</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A428" s="1" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B428" s="1">
+      <c r="B428" s="6">
         <v>56.2416029426468</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A429" s="1" t="s">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B429" s="1">
+      <c r="B429" s="6">
         <v>56.331744509405603</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A430" s="1" t="s">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B430" s="1">
+      <c r="B430" s="6">
         <v>56.479390179096498</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A431" s="1" t="s">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B431" s="1">
+      <c r="B431" s="6">
         <v>56.828041181559897</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A432" s="1" t="s">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B432" s="1">
+      <c r="B432" s="6">
         <v>57.2979170496642</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A433" s="1" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B433" s="1">
+      <c r="B433" s="6">
         <v>57.694747165394602</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A434" s="1" t="s">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B434" s="1">
+      <c r="B434" s="6">
         <v>58.186899397697402</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A435" s="1" t="s">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B435" s="1">
+      <c r="B435" s="6">
         <v>58.3070881533761</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A436" s="1" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B436" s="1">
+      <c r="B436" s="6">
         <v>58.309160373301403</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A437" s="1" t="s">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B437" s="1">
+      <c r="B437" s="6">
         <v>58.503430991315597</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A438" s="1" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B438" s="1">
+      <c r="B438" s="6">
         <v>58.767120976833802</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A439" s="1" t="s">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B439" s="1">
+      <c r="B439" s="6">
         <v>58.976415189308199</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A440" s="1" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B440" s="1">
+      <c r="B440" s="6">
         <v>58.828251464635798</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A441" s="1" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B441" s="1">
+      <c r="B441" s="6">
         <v>58.771783471665998</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A442" s="1" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B442" s="1">
+      <c r="B442" s="6">
         <v>59.001799883395201</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A443" s="1" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B443" s="1">
+      <c r="B443" s="6">
         <v>59.072255360861497</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A444" s="1" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B444" s="1">
+      <c r="B444" s="6">
         <v>59.309006487348199</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A445" s="1" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B445" s="1">
+      <c r="B445" s="6">
         <v>59.454579937113898</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A446" s="1" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B446" s="1">
+      <c r="B446" s="6">
         <v>59.882493351727099</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A447" s="1" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B447" s="1">
+      <c r="B447" s="6">
         <v>60.250312388500703</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A448" s="1" t="s">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B448" s="1">
+      <c r="B448" s="6">
         <v>60.603625885796198</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A449" s="1" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="B449" s="1">
+      <c r="B449" s="6">
         <v>60.696357727461802</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A450" s="1" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B450" s="1">
+      <c r="B450" s="6">
         <v>60.772511809723397</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A451" s="1" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B451" s="1">
+      <c r="B451" s="6">
         <v>60.861617266519197</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A452" s="1" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B452" s="1">
+      <c r="B452" s="6">
         <v>60.590674511261902</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A453" s="1" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B453" s="1">
+      <c r="B453" s="6">
         <v>60.6429980643804</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A454" s="1" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B454" s="1">
+      <c r="B454" s="6">
         <v>60.809293713400699</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A455" s="1" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B455" s="1">
+      <c r="B455" s="6">
         <v>61.119608647242202</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A456" s="1" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B456" s="1">
+      <c r="B456" s="6">
         <v>61.736612130055903</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A457" s="1" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="B457" s="1">
+      <c r="B457" s="6">
         <v>62.006518775350798</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A458" s="1" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B458" s="1">
+      <c r="B458" s="6">
         <v>62.331857303651802</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A459" s="1" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B459" s="1">
+      <c r="B459" s="6">
         <v>62.692423570686302</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A460" s="1" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B460" s="1">
+      <c r="B460" s="6">
         <v>63.0162079340435</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A461" s="1" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="B461" s="1">
+      <c r="B461" s="6">
         <v>63.192346627710499</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A462" s="1" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B462" s="1">
+      <c r="B462" s="6">
         <v>63.329113142792501</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A463" s="1" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="B463" s="1">
+      <c r="B463" s="6">
         <v>63.291295129152097</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A464" s="1" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B464" s="1">
+      <c r="B464" s="6">
         <v>62.982534360254498</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A465" s="1" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="B465" s="1">
+      <c r="B465" s="6">
         <v>63.058170387534602</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A466" s="1" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B466" s="1">
+      <c r="B466" s="6">
         <v>63.326004812904202</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A467" s="1" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B467" s="1">
+      <c r="B467" s="6">
         <v>63.5839961936272</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A468" s="1" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B468" s="1">
+      <c r="B468" s="6">
         <v>64.077702590874594</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A469" s="1" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="B469" s="1">
+      <c r="B469" s="6">
         <v>64.3274050918955</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A470" s="1" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B470" s="1">
+      <c r="B470" s="6">
         <v>64.781221255577293</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A471" s="1" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="B471" s="1">
+      <c r="B471" s="6">
         <v>65.049055680946097</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A472" s="1" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B472" s="1">
+      <c r="B472" s="6">
         <v>65.350563680104003</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A473" s="1" t="s">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="B473" s="1">
+      <c r="B473" s="6">
         <v>65.5448342981189</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A474" s="1" t="s">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B474" s="1">
+      <c r="B474" s="6">
         <v>66.019890716036102</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A475" s="1" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="B475" s="1">
+      <c r="B475" s="6">
         <v>66.170126660633898</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A476" s="1" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B476" s="1">
+      <c r="B476" s="6">
         <v>66.098635073205301</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A477" s="1" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="B477" s="1">
+      <c r="B477" s="6">
         <v>66.372168103369305</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A478" s="1" t="s">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B478" s="1">
+      <c r="B478" s="6">
         <v>66.742059360068197</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A479" s="1" t="s">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="B479" s="1">
+      <c r="B479" s="6">
         <v>67.127492266208904</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A480" s="1" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B480" s="1">
+      <c r="B480" s="6">
         <v>67.584934814759706</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A481" s="1" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="B481" s="1">
+      <c r="B481" s="6">
         <v>68.045485693199694</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A482" s="1" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B482" s="1">
+      <c r="B482" s="6">
         <v>68.818941780387206</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A483" s="1" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="B483" s="1">
+      <c r="B483" s="6">
         <v>69.295552363249001</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A484" s="1" t="s">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B484" s="1">
+      <c r="B484" s="6">
         <v>69.4561494074742</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A485" s="1" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="B485" s="1">
+      <c r="B485" s="6">
         <v>69.609493681960302</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A486" s="1" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B486" s="1">
+      <c r="B486" s="6">
         <v>70.009950182560502</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A487" s="1" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B487" s="1">
+      <c r="B487" s="6">
         <v>70.254990188749304</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A488" s="1" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B488" s="1">
+      <c r="B488" s="6">
         <v>70.050358471107799</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A489" s="1" t="s">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B489" s="1">
+      <c r="B489" s="6">
         <v>70.179354161469305</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A490" s="1" t="s">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B490" s="1">
+      <c r="B490" s="6">
         <v>70.370516449595101</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A491" s="1" t="s">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="B491" s="1">
+      <c r="B491" s="6">
         <v>70.538884318540795</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A492" s="1" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B492" s="1">
+      <c r="B492" s="6">
         <v>70.892715870817796</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A493" s="1" t="s">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B493" s="1">
+      <c r="B493" s="6">
         <v>71.107190633106001</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A494" s="1" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B494" s="1">
+      <c r="B494" s="6">
         <v>71.476045779842494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A495" s="1" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="1">
+      <c r="B495" s="6">
         <v>71.7718551742052</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A496" s="1" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B496" s="1">
+      <c r="B496" s="6">
         <v>72.552045976150893</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A497" s="1" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B497" s="1">
+      <c r="B497" s="6">
         <v>72.971670511062101</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A498" s="1" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B498" s="1">
+      <c r="B498" s="6">
         <v>73.489725492434204</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A499" s="1" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B499" s="1">
+      <c r="B499" s="6">
         <v>73.255564640853606</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A500" s="1" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B500" s="1">
+      <c r="B500" s="6">
         <v>72.793977652452099</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A501" s="1" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B501" s="1">
+      <c r="B501" s="6">
         <v>72.771183233271202</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A502" s="1" t="s">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B502" s="1">
+      <c r="B502" s="6">
         <v>72.929190002589607</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A503" s="1" t="s">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="B503" s="1">
+      <c r="B503" s="6">
         <v>73.131749500305801</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A504" s="1" t="s">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B504" s="1">
+      <c r="B504" s="6">
         <v>73.515110186521099</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A505" s="1" t="s">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="B505" s="1">
+      <c r="B505" s="6">
         <v>73.968926350202807</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A506" s="1" t="s">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B506" s="1">
+      <c r="B506" s="6">
         <v>74.561581248891898</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A507" s="1" t="s">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B507" s="1">
+      <c r="B507" s="6">
         <v>74.930954450610002</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A508" s="1" t="s">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B508" s="1">
+      <c r="B508" s="6">
         <v>75.295991345633695</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A509" s="1" t="s">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="B509" s="1">
+      <c r="B509" s="6">
         <v>75.578460244005001</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A510" s="1" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B510" s="1">
+      <c r="B510" s="6">
         <v>75.723450928541396</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A511" s="1" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="B511" s="1">
+      <c r="B511" s="6">
         <v>75.717440951980294</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A512" s="1" t="s">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B512" s="1">
+      <c r="B512" s="6">
         <v>75.159264378868897</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A513" s="1" t="s">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="B513" s="1">
+      <c r="B513" s="6">
         <v>75.155508143518205</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A514" s="1" t="s">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B514" s="1">
+      <c r="B514" s="6">
         <v>75.516106737183705</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A515" s="1" t="s">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B515" s="1">
+      <c r="B515" s="6">
         <v>75.635555021335406</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A516" s="1" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B516" s="1">
+      <c r="B516" s="6">
         <v>75.821113047659097</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A517" s="1" t="s">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B517" s="1">
+      <c r="B517" s="6">
         <v>76.332712302421996</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A518" s="1" t="s">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B518" s="1">
+      <c r="B518" s="6">
         <v>77.158332832501898</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A519" s="1" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="B519" s="1">
+      <c r="B519" s="6">
         <v>77.792385359697107</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A520" s="1" t="s">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B520" s="1">
+      <c r="B520" s="6">
         <v>78.343049462107103</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A521" s="1" t="s">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B521" s="1">
+      <c r="B521" s="6">
         <v>78.502313840976001</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A522" s="1" t="s">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B522" s="1">
+      <c r="B522" s="6">
         <v>78.547388665184201</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A523" s="1" t="s">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="B523" s="1">
+      <c r="B523" s="6">
         <v>78.300979626179497</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A524" s="1" t="s">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B524" s="1">
+      <c r="B524" s="6">
         <v>78.053819340104596</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A525" s="1" t="s">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B525" s="1">
+      <c r="B525" s="6">
         <v>78.413666686699898</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A526" s="1" t="s">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B526" s="1">
+      <c r="B526" s="6">
         <v>78.853897469799904</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A527" s="1" t="s">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B527" s="1">
+      <c r="B527" s="6">
         <v>79.090540296892797</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A528" s="1" t="s">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B528" s="1">
+      <c r="B528" s="6">
         <v>79.439118937436106</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A529" s="1" t="s">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B529" s="1">
+      <c r="B529" s="6">
         <v>79.841036119959099</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A530" s="1" t="s">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B530" s="1">
+      <c r="B530" s="6">
         <v>80.383436504597597</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A531" s="1" t="s">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="B531" s="1">
+      <c r="B531" s="6">
         <v>80.568243283851203</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A532" s="1" t="s">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B532" s="1">
+      <c r="B532" s="6">
         <v>80.8927820181501</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A533" s="1" t="s">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="B533" s="1">
+      <c r="B533" s="6">
         <v>81.290942965322401</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A534" s="1" t="s">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B534" s="1">
+      <c r="B534" s="6">
         <v>81.887433139010795</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A535" s="1" t="s">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="B535" s="1">
+      <c r="B535" s="6">
         <v>81.941522928060607</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A536" s="1" t="s">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B536" s="1">
+      <c r="B536" s="6">
         <v>81.668820241601097</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A537" s="1" t="s">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="B537" s="1">
+      <c r="B537" s="6">
         <v>81.619237934972006</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A538" s="1" t="s">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B538" s="1">
+      <c r="B538" s="6">
         <v>81.5921930404471</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A539" s="1" t="s">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="B539" s="1">
+      <c r="B539" s="6">
         <v>81.824328385119301</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A540" s="1" t="s">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B540" s="1">
+      <c r="B540" s="6">
         <v>82.132339683875202</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A541" s="1" t="s">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B541" s="1">
+      <c r="B541" s="6">
         <v>82.522988160346202</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A542" s="1" t="s">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B542" s="1">
+      <c r="B542" s="6">
         <v>83.292265160165897</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A543" s="1" t="s">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B543" s="1">
+      <c r="B543" s="6">
         <v>83.770058296772604</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A544" s="1" t="s">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B544" s="1">
+      <c r="B544" s="6">
         <v>84.519051625698694</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A545" s="1" t="s">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B545" s="1">
+      <c r="B545" s="6">
         <v>84.733157040687601</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A546" s="1" t="s">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B546" s="1">
+      <c r="B546" s="6">
         <v>84.965292385359703</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A547" s="1" t="s">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B547" s="1">
+      <c r="B547" s="6">
         <v>84.806779253560904</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A548" s="1" t="s">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B548" s="1">
+      <c r="B548" s="6">
         <v>84.535579061241705</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A549" s="1" t="s">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B549" s="1">
+      <c r="B549" s="6">
         <v>84.682072239918298</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A550" s="1" t="s">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B550" s="1">
+      <c r="B550" s="6">
         <v>84.914958831660599</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A551" s="1" t="s">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B551" s="1">
+      <c r="B551" s="6">
         <v>85.219965142135905</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A552" s="1" t="s">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B552" s="1">
+      <c r="B552" s="6">
         <v>85.596339924274304</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A553" s="1" t="s">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B553" s="1">
+      <c r="B553" s="6">
         <v>86.069625578460204</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A554" s="1" t="s">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B554" s="1">
+      <c r="B554" s="6">
         <v>86.763777871266299</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A555" s="1" t="s">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B555" s="1">
+      <c r="B555" s="6">
         <v>87.188983712963505</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A556" s="1" t="s">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B556" s="1">
+      <c r="B556" s="6">
         <v>87.110102770599198</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A557" s="1" t="s">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B557" s="1">
+      <c r="B557" s="6">
         <v>87.275377126029198</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A558" s="1" t="s">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="B558" s="1">
+      <c r="B558" s="6">
         <v>87.630716990203695</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A559" s="1" t="s">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B559" s="1">
+      <c r="B559" s="6">
         <v>87.403840375022497</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A560" s="1" t="s">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="B560" s="1">
+      <c r="B560" s="6">
         <v>86.967365827273298</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A561" s="1" t="s">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B561" s="1">
+      <c r="B561" s="6">
         <v>87.113107758879707</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A562" s="1" t="s">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B562" s="1">
+      <c r="B562" s="6">
         <v>87.240819760802907</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A563" s="1" t="s">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B563" s="1">
+      <c r="B563" s="6">
         <v>87.4248752929864</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A564" s="1" t="s">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B564" s="1">
+      <c r="B564" s="6">
         <v>87.752419015565806</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A565" s="1" t="s">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B565" s="1">
+      <c r="B565" s="6">
         <v>88.203918504717805</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A566" s="1" t="s">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="B566" s="1">
+      <c r="B566" s="6">
         <v>88.685467876675304</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A567" s="1" t="s">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B567" s="1">
+      <c r="B567" s="6">
         <v>89.046817717410903</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A568" s="1" t="s">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="B568" s="1">
+      <c r="B568" s="6">
         <v>89.3863813931126</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A569" s="1" t="s">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B569" s="1">
+      <c r="B569" s="6">
         <v>89.7777811166536</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A570" s="1" t="s">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="B570" s="1">
+      <c r="B570" s="6">
         <v>89.910000600997606</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A571" s="1" t="s">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B571" s="1">
+      <c r="B571" s="6">
         <v>89.625277961415904</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A572" s="1" t="s">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B572" s="1">
+      <c r="B572" s="6">
         <v>89.225614520103406</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A573" s="1" t="s">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B573" s="1">
+      <c r="B573" s="6">
         <v>89.324027886291205</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A574" s="1" t="s">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B574" s="1">
+      <c r="B574" s="6">
         <v>89.556914478033505</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A575" s="1" t="s">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B575" s="1">
+      <c r="B575" s="6">
         <v>89.809333493599397</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A576" s="1" t="s">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B576" s="1">
+      <c r="B576" s="6">
         <v>90.357743854798997</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A577" s="1" t="s">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B577" s="1">
+      <c r="B577" s="6">
         <v>90.906154215998598</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A578" s="1" t="s">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="B578" s="1">
+      <c r="B578" s="6">
         <v>91.616833944347604</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A579" s="1" t="s">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B579" s="1">
+      <c r="B579" s="6">
         <v>92.039034797764302</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A580" s="1" t="s">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="B580" s="1">
+      <c r="B580" s="6">
         <v>93.603882444858499</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A581" s="1" t="s">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B581" s="1">
+      <c r="B581" s="6">
         <v>94.1447803353567</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A582" s="1" t="s">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B582" s="1">
+      <c r="B582" s="6">
         <v>94.722489332291602</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A583" s="1" t="s">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B583" s="1">
+      <c r="B583" s="6">
         <v>94.838932628162794</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A584" s="1" t="s">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="B584" s="1">
+      <c r="B584" s="6">
         <v>94.725494320572096</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A585" s="1" t="s">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B585" s="1">
+      <c r="B585" s="6">
         <v>94.963639641805401</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A586" s="1" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B586" s="1">
+      <c r="B586" s="6">
         <v>95.322735741330604</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A587" s="1" t="s">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B587" s="1">
+      <c r="B587" s="6">
         <v>95.793767654306095</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A588" s="1" t="s">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B588" s="1">
+      <c r="B588" s="6">
         <v>96.093515235290596</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A589" s="1" t="s">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B589" s="1">
+      <c r="B589" s="6">
         <v>96.698269126750404</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A590" s="1" t="s">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="B590" s="1">
+      <c r="B590" s="6">
         <v>97.695173988821495</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A591" s="1" t="s">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B591" s="1">
+      <c r="B591" s="6">
         <v>98.272882985756297</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A592" s="1" t="s">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B592" s="1">
+      <c r="B592" s="6">
         <v>98.794999699501204</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A593" s="1" t="s">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B593" s="1">
+      <c r="B593" s="6">
         <v>99.171374481639504</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A594" s="1" t="s">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B594" s="1">
+      <c r="B594" s="6">
         <v>99.492156980587794</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A595" s="1" t="s">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B595" s="1">
+      <c r="B595" s="6">
         <v>99.154847046096506</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A596" s="1" t="s">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B596" s="1">
+      <c r="B596" s="6">
         <v>98.994080173087298</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A597" s="1" t="s">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B597" s="1">
+      <c r="B597" s="6">
         <v>99.376464931786799</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A598" s="1" t="s">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B598" s="1">
+      <c r="B598" s="6">
         <v>99.909099104513501</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A599" s="1" t="s">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B599" s="1">
+      <c r="B599" s="6">
         <v>100.492</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A600" s="1" t="s">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B600" s="1">
+      <c r="B600" s="6">
         <v>100.917</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A601" s="1" t="s">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B601" s="1">
+      <c r="B601" s="6">
         <v>101.44</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A602" s="1" t="s">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="B602" s="1">
+      <c r="B602" s="6">
         <v>102.303</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A603" s="1" t="s">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B603" s="1">
+      <c r="B603" s="6">
         <v>103.02</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A604" s="1" t="s">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="B604" s="1">
+      <c r="B604" s="6">
         <v>103.108</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A605" s="1" t="s">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B605" s="1">
+      <c r="B605" s="6">
         <v>103.07899999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A606" s="1" t="s">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B606" s="1">
+      <c r="B606" s="6">
         <v>103.476</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A607" s="1" t="s">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B607" s="1">
+      <c r="B607" s="6">
         <v>103.53100000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A608" s="1" t="s">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B608" s="1">
+      <c r="B608" s="6">
         <v>103.233</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A609" s="1" t="s">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B609" s="1">
+      <c r="B609" s="6">
         <v>103.29900000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A610" s="1" t="s">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B610" s="1">
+      <c r="B610" s="6">
         <v>103.687</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A611" s="1" t="s">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B611" s="1">
+      <c r="B611" s="6">
         <v>103.67</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A612" s="1" t="s">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B612" s="1">
+      <c r="B612" s="6">
         <v>103.94199999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A613" s="1" t="s">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B613" s="1">
+      <c r="B613" s="6">
         <v>104.503</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A614" s="1" t="s">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B614" s="1">
+      <c r="B614" s="6">
         <v>105.346</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A615" s="1" t="s">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B615" s="1">
+      <c r="B615" s="6">
         <v>105.934</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A616" s="1" t="s">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B616" s="1">
+      <c r="B616" s="6">
         <v>106.447</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A617" s="1" t="s">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B617" s="1">
+      <c r="B617" s="6">
         <v>106.889</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A618" s="1" t="s">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B618" s="1">
+      <c r="B618" s="6">
         <v>106.83799999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A619" s="1" t="s">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B619" s="1">
+      <c r="B619" s="6">
         <v>105.755</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A620" s="1" t="s">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B620" s="1">
+      <c r="B620" s="6">
         <v>106.16200000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A621" s="1" t="s">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B621" s="1">
+      <c r="B621" s="6">
         <v>106.74299999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A622" s="1" t="s">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B622" s="1">
+      <c r="B622" s="6">
         <v>107.444</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A623" s="1" t="s">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B623" s="1">
+      <c r="B623" s="6">
         <v>107.867</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A624" s="1" t="s">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B624" s="1">
+      <c r="B624" s="6">
         <v>108.114</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A625" s="1" t="s">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B625" s="1">
+      <c r="B625" s="6">
         <v>108.774</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A626" s="1" t="s">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B626" s="1">
+      <c r="B626" s="6">
         <v>108.85599999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A627" s="1" t="s">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B627" s="1">
+      <c r="B627" s="6">
         <v>109.271</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A628" s="1" t="s">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B628" s="1">
+      <c r="B628" s="6">
         <v>110.21</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A629" s="1" t="s">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B629" s="1">
+      <c r="B629" s="6">
         <v>110.907</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A630" s="1" t="s">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B630" s="1">
+      <c r="B630" s="6">
         <v>111.824</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A631" s="1" t="s">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B631" s="1">
+      <c r="B631" s="6">
         <v>112.19</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A632" s="1" t="s">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="B632" s="1">
+      <c r="B632" s="6">
         <v>112.419</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A633" s="1" t="s">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B633" s="1">
+      <c r="B633" s="6">
         <v>113.018</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A634" s="1" t="s">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B634" s="1">
+      <c r="B634" s="6">
         <v>113.682</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A635" s="1" t="s">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B635" s="1">
+      <c r="B635" s="6">
         <v>113.899</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A636" s="1" t="s">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B636" s="1">
+      <c r="B636" s="6">
         <v>114.601</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A637" s="1" t="s">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B637" s="1">
+      <c r="B637" s="6">
         <v>115.56100000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A638" s="1" t="s">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="B638" s="1">
+      <c r="B638" s="6">
         <v>116.884</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A639" s="1" t="s">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B639" s="1">
+      <c r="B639" s="6">
         <v>117.30800000000001</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A640" s="1" t="s">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="B640" s="1">
+      <c r="B640" s="6">
         <v>118.002</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A641" s="1" t="s">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B641" s="1">
+      <c r="B641" s="6">
         <v>118.98099999999999</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A642" s="1" t="s">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B642" s="1">
+      <c r="B642" s="6">
         <v>120.15900000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A643" s="1" t="s">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B643" s="1">
+      <c r="B643" s="6">
         <v>120.809</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A644" s="1" t="s">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B644" s="1">
+      <c r="B644" s="6">
         <v>121.02200000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A645" s="1" t="s">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B645" s="1">
+      <c r="B645" s="6">
         <v>122.044</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A646" s="1" t="s">
+    <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B646" s="1">
+      <c r="B646" s="8">
         <v>122.94799999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A647" s="4"/>
-      <c r="B647" s="4"/>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A648" s="4"/>
-      <c r="B648" s="4"/>
-    </row>
-    <row r="649" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="10"/>
+      <c r="B647" s="10"/>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="9"/>
+      <c r="B648" s="9"/>
+    </row>
+    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
         <v>647</v>
       </c>
       <c r="B649" s="2"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
     </row>
-    <row r="651" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A651" s="4" t="s">
+    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="B651" s="4"/>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B651" s="9"/>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
     </row>
   </sheetData>

--- a/bases/UPDATE/SCN/inflacion.xlsx
+++ b/bases/UPDATE/SCN/inflacion.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B80A2A9D-08AD-4CB2-9B5E-6CE8C6F50001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F52229-0F73-4AE3-9311-453459317DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="inflacion" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="inflacion" localSheetId="0">inflacion!$A$1:$B$652</definedName>
+    <definedName name="inflacion" localSheetId="0">inflacion!$A$1:$B$655</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +24,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Admin\Desktop\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="8" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="8" background="1" saveData="1">
     <webPr consecutive="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1969&amp;aamax=9999&amp;cveser=,628194,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
   <si>
     <t>Indicadores económicos de coyuntura &gt; Índices de precios &gt; Índice nacional de precios al consumidor. Base segunda quincena de julio de 2018=100 &gt; Mensual &gt; Índice</t>
   </si>
@@ -2007,6 +2007,15 @@
     <t>2022/07</t>
   </si>
   <si>
+    <t>2022/08</t>
+  </si>
+  <si>
+    <t>2022/09</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Fuente: </t>
     </r>
@@ -2022,7 +2031,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 31/08/2022 14:18:06</t>
+    <t>Fecha de consulta: 30/11/2022 15:11:33</t>
   </si>
 </sst>
 </file>
@@ -2968,11 +2977,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A625" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8136,48 +8143,72 @@
         <v>122.044</v>
       </c>
     </row>
-    <row r="646" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="7" t="s">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B646" s="8">
+      <c r="B646" s="6">
         <v>122.94799999999999</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="10"/>
-      <c r="B647" s="10"/>
+      <c r="A647" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B647" s="6">
+        <v>123.803</v>
+      </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="9"/>
-      <c r="B648" s="9"/>
-    </row>
-    <row r="649" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B649" s="2"/>
+      <c r="A648" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B648" s="6">
+        <v>124.571</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B649" s="8">
+        <v>125.276</v>
+      </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="9" t="s">
-        <v>648</v>
-      </c>
+      <c r="A650" s="10"/>
+      <c r="B650" s="10"/>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="9"/>
       <c r="B651" s="9"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
+    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2"/>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="1"/>
+    </row>
+    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B654" s="9"/>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A647:B647"/>
-    <mergeCell ref="A648:B648"/>
-    <mergeCell ref="A649:B649"/>
+    <mergeCell ref="A650:B650"/>
     <mergeCell ref="A651:B651"/>
+    <mergeCell ref="A652:B652"/>
+    <mergeCell ref="A654:B654"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bases/UPDATE/SCN/inflacion.xlsx
+++ b/bases/UPDATE/SCN/inflacion.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0F52229-0F73-4AE3-9311-453459317DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="5978"/>
   </bookViews>
   <sheets>
     <sheet name="inflacion" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="inflacion" localSheetId="0">inflacion!$A$1:$B$655</definedName>
+    <definedName name="inflacion" localSheetId="0">inflacion!$A$1:$B$656</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Admin\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="8" background="1" saveData="1">
-    <webPr consecutive="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1969&amp;aamax=9999&amp;cveser=,628194,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" odcFile="C:\Users\rcant\CIEP Dropbox\SimuladorCIEP\bases\UPDATE\SCN\inflacion.IQY" name="inflacion" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="https://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=1969&amp;aamax=9999&amp;cveser=,628194,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="653">
   <si>
     <t>Indicadores económicos de coyuntura &gt; Índices de precios &gt; Índice nacional de precios al consumidor. Base segunda quincena de julio de 2018=100 &gt; Mensual &gt; Índice</t>
   </si>
@@ -2016,6 +2015,9 @@
     <t>2022/10</t>
   </si>
   <si>
+    <t>2022/11</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Fuente: </t>
     </r>
@@ -2031,7 +2033,7 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 30/11/2022 15:11:33</t>
+    <t>Fecha de consulta: 03/01/2023 19:25:41</t>
   </si>
 </sst>
 </file>
@@ -2100,7 +2102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2355,7 +2357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2470,77 +2472,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2564,29 +2495,29 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2594,74 +2525,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2681,7 +2594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2697,7 +2610,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -2709,7 +2622,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -2756,23 +2669,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2808,23 +2704,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2977,5238 +2856,5246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.06640625" customWidth="1"/>
+    <col min="2" max="2" width="32.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>1.159484238536E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>1.1636457741601E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>1.1647943020915E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>1.1679513291063001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>1.1679513291063001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>1.1721133828656E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>1.1765624389987E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>1.1778544681171E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>1.1889050989392001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>1.2013912601418E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>1.2015347613287999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>1.2105763749324001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>1.2197614897229E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>1.219617988536E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>1.223206037322E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>1.2247845508293999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>1.2273680910060999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>1.2348311911022E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="1">
         <v>1.240858760818E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>1.2465993280846001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="1">
         <v>1.2496133719725E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="1">
         <v>1.2500438756084999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="1">
         <v>1.2567894695444001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="1">
         <v>1.2674095966554E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="1">
         <v>1.279895757858E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="1">
         <v>1.2852058214134999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1">
         <v>1.2900853812578999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="1">
         <v>1.2966874739317E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="1">
         <v>1.2994145153705E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="1">
         <v>1.3052985838241001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="1">
         <v>1.3042940752149E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="1">
         <v>1.3162057133842E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="1">
         <v>1.3205112683304E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="1">
         <v>1.3218032974488E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1">
         <v>1.3239558159294E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>1.3302709061542E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="1">
         <v>1.3361549746078E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="1">
         <v>1.3403170283671001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="1">
         <v>1.3476366272012E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="1">
         <v>1.3561042358315E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="1">
         <v>1.3588307592102999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="1">
         <v>1.3688768814232E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="1">
         <v>1.3740439617765001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="1">
         <v>1.3830855753801E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="1">
         <v>1.3894001475448999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="1">
         <v>1.3904046561542E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="1">
         <v>1.3994462697578E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="1">
         <v>1.4041828464751001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="1">
         <v>1.42456209335E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="1">
         <v>1.4363307483171999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="1">
         <v>1.4489604107068E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="1">
         <v>1.4719231977583E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="1">
         <v>1.4875669040357E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="1">
         <v>1.4997655446541001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="1">
         <v>1.5382285367960999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="1">
         <v>1.5629138566770999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="1">
         <v>1.6000848196255999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="1">
         <v>1.6206080857473E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="1">
         <v>1.640557346971E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="1">
         <v>1.7042791457570001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="1">
         <v>1.7652744212393E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="1">
         <v>1.8051724256265E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="1">
         <v>1.8190941171344E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="1">
         <v>1.8437789189555E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="1">
         <v>1.8582746153615E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="1">
         <v>1.8766448450177001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="1">
         <v>1.9037696858284998E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="1">
         <v>1.9238624482391001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="1">
         <v>1.9456772254943001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="1">
         <v>1.9842832007633E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="1">
         <v>2.0393944077167998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="1">
         <v>2.0553251164433E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="1">
         <v>2.0815889498316999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="1">
         <v>2.0930700842899001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="1">
         <v>2.1062737516527E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="1">
         <v>2.1240699763357001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="1">
         <v>2.1524868462647999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="1">
         <v>2.1890838043151999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="1">
         <v>2.2065930265491002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="1">
         <v>2.2256812804255E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="1">
         <v>2.2418984735410999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="1">
         <v>2.2533801260593001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="1">
         <v>2.2691673335988E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="1">
         <v>2.2876810644420001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="1">
         <v>2.3318846237755E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="1">
         <v>2.3755141782108E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="1">
         <v>2.3987639677113998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="1">
         <v>2.4155556838601999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="1">
         <v>2.4324909011960001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="1">
         <v>2.4422500208846998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="1">
         <v>2.4629167882684998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="1">
         <v>2.4864535802933001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="1">
         <v>2.5712731681591001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="1">
         <v>2.7160830049132001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="1">
         <v>2.8387910619629E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="1">
         <v>2.9099759608450002E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="1">
         <v>3.0026891525181999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="1">
         <v>3.068994491556E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="1">
         <v>3.1225266669420999E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="1">
         <v>3.1697442701634999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="1">
         <v>3.1975866170592997E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="1">
         <v>3.2367671152864E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="1">
         <v>3.2733645913966998E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="1">
         <v>3.3405309377817001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="1">
         <v>3.3998041984945E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="1">
         <v>3.4257810294338997E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="1">
         <v>3.4632389948314003E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="1">
         <v>3.5111741042130003E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="1">
         <v>3.5892480982931997E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="1">
         <v>3.6407712564607002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="1">
         <v>3.6786597255693998E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="1">
         <v>3.7195627566259999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="1">
         <v>3.7560162134143003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="1">
         <v>3.8076828728438997E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="1">
         <v>3.8722661971122001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="1">
         <v>3.9108726903659997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="1">
         <v>3.9555067534107001E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="1">
         <v>4.0034418627922001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="1">
         <v>4.0446313782378999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="1">
         <v>4.0789323166206003E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="1">
         <v>4.2237421533746003E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="1">
         <v>4.2844504263326998E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="1">
         <v>4.3425751591141003E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="1">
         <v>4.3814686549672001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="1">
         <v>4.4388763996483997E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="1">
         <v>4.4881030200883E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="1">
         <v>4.5424962028216997E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="1">
         <v>4.6112415808491999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="1">
         <v>4.6677878001232E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="1">
         <v>4.7493063416521E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="1">
         <v>4.8104451183965002E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="1">
         <v>4.8955511907265999E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="1">
         <v>5.1342222289500999E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="1">
         <v>5.2529117335026E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="1">
         <v>5.3609811109441997E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="1">
         <v>5.4546982931667001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="1">
         <v>5.5436799348668998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="1">
         <v>5.6536148282649003E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="1">
         <v>5.8114848311197002E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="1">
         <v>5.9318963504416997E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="1">
         <v>5.9977717037531998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="1">
         <v>6.0886183433500003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="1">
         <v>6.1942481999368998E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="1">
         <v>6.3567107601118E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="1">
         <v>6.5615113636636996E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="1">
         <v>6.7226824128553006E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="1">
         <v>6.8664872228650004E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="1">
         <v>7.0213436998917994E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="1">
         <v>7.1275470432417998E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="1">
         <v>7.2271488120529997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="1">
         <v>7.3544494264979998E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="1">
         <v>7.5060048571127996E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="1">
         <v>7.6456481314983005E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="1">
         <v>7.8152867893202999E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="1">
         <v>7.9656936920788998E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="1">
         <v>8.1801099141324995E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="1">
         <v>8.5865535761614001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="1">
         <v>8.9239653758488996E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="1">
         <v>9.2498950048831005E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="1">
         <v>9.7512043769908005E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="1">
         <v>0.102993008486838</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="1">
         <v>0.107954431404381</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="1">
         <v>0.113517202183875</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="1">
         <v>0.12625587888394699</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B168" s="1">
         <v>0.13299549962287399</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="1">
         <v>0.139890117231354</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="1">
         <v>0.14696269708666401</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="1">
         <v>0.162656416386952</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="1">
         <v>0.180355086174049</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="1">
         <v>0.19003395919601501</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="1">
         <v>0.199232046112296</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="1">
         <v>0.21184586120184501</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="1">
         <v>0.22103390303203299</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="1">
         <v>0.22940388942168999</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="1">
         <v>0.24074613337865899</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="1">
         <v>0.25009060709102099</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="1">
         <v>0.25778749500495801</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="1">
         <v>0.26634117851057798</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="1">
         <v>0.28198323736778103</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="1">
         <v>0.29404738058026297</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="1">
         <v>0.31272771793151599</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="1">
         <v>0.32923231761073402</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="1">
         <v>0.34330428133376401</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="1">
         <v>0.358155549984224</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="1">
         <v>0.37003168586303298</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="1">
         <v>0.38342337604798998</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="1">
         <v>0.395992705756055</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="1">
         <v>0.40724883861334799</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B192" s="1">
         <v>0.41938043776519002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="1">
         <v>0.43403365399663402</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B194" s="1">
         <v>0.44892941320917701</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="1">
         <v>0.46799581549371999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B196" s="1">
         <v>0.50271144651646704</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="1">
         <v>0.52359622178541398</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B198" s="6">
+      <c r="B198" s="1">
         <v>0.54388539960334203</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="1">
         <v>0.56062106216569496</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="1">
         <v>0.57390224086258201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="1">
         <v>0.58827559343184699</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="1">
         <v>0.60876282366954104</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="1">
         <v>0.63537685186609805</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="1">
         <v>0.66075231421359504</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="1">
         <v>0.68585222311662397</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="1">
         <v>0.71749512498948298</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="1">
         <v>0.76634013058852701</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="1">
         <v>0.834092231384849</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="1">
         <v>0.87117447743779697</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="1">
         <v>0.91166671679412803</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="1">
         <v>0.95926311145802001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="1">
         <v>1.0125700987086099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="1">
         <v>1.0775666443363501</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="1">
         <v>1.13133289250856</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="1">
         <v>1.2215312432740899</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="1">
         <v>1.2948116693731599</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="1">
         <v>1.36882402945339</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="1">
         <v>1.4613043243419099</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="1">
         <v>1.5767346258639301</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="5" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="1">
         <v>1.7044012927955401</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="1">
         <v>1.82738639011058</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="1">
         <v>1.94815269938473</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="1">
         <v>2.1186064597271499</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="1">
         <v>2.2783250588421802</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="1">
         <v>2.4431457328031998</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B226" s="6">
+      <c r="B226" s="1">
         <v>2.64102152651602</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="1">
         <v>2.8568715486409899</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="5" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B228" s="6">
+      <c r="B228" s="1">
         <v>3.0450813948028701</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="5" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="1">
         <v>3.2988446335319099</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B230" s="1">
         <v>3.5605114226673802</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="1">
         <v>4.0863924586010301</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B232" s="1">
         <v>4.7182459356504296</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="1">
         <v>5.1117830400722699</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="5" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B234" s="1">
         <v>5.3735474255859703</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="5" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B235" s="1">
         <v>5.5389407368005896</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="5" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B236" s="1">
         <v>5.6461086882159401</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="5" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B237" s="1">
         <v>5.7612921365391498</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B238" s="6">
+      <c r="B238" s="1">
         <v>5.8574565431643997</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="1">
         <v>5.9113433427301798</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B240" s="6">
+      <c r="B240" s="1">
         <v>5.9451390220791502</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B241" s="1">
         <v>5.99048648308192</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B242" s="6">
+      <c r="B242" s="1">
         <v>6.0706543465480198</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B243" s="1">
         <v>6.1973163857180404</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="5" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="1">
         <v>6.3490237929630702</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B245" s="1">
         <v>6.4351835425093196</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B246" s="6">
+      <c r="B246" s="1">
         <v>6.5049448988288097</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="1">
         <v>6.6022244447037099</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="1">
         <v>6.6930987691500397</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="1">
         <v>6.7743846367104403</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B250" s="6">
+      <c r="B250" s="1">
         <v>6.8421482176047199</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="1">
         <v>6.90733277574674</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B252" s="6">
+      <c r="B252" s="1">
         <v>6.9733927950019501</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B253" s="6">
+      <c r="B253" s="1">
         <v>7.0765250152232699</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="5" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B254" s="6">
+      <c r="B254" s="1">
         <v>7.1758554371589298</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="5" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B255" s="1">
         <v>7.4180295787321997</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="5" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B256" s="6">
+      <c r="B256" s="1">
         <v>7.7760373017278699</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B257" s="1">
         <v>7.9521198537757698</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="5" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B258" s="6">
+      <c r="B258" s="1">
         <v>8.0923099196601296</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B259" s="6">
+      <c r="B259" s="1">
         <v>8.21547154939074</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="5" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="6">
+      <c r="B260" s="1">
         <v>8.3588376756723708</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="5" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B261" s="6">
+      <c r="B261" s="1">
         <v>8.5429385894720191</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="5" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B262" s="6">
+      <c r="B262" s="1">
         <v>8.6987348337264905</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B263" s="6">
+      <c r="B263" s="1">
         <v>8.8469504416048093</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="5" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B264" s="6">
+      <c r="B264" s="1">
         <v>8.9730613687053005</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="5" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B265" s="6">
+      <c r="B265" s="1">
         <v>9.1020598876472398</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B266" s="6">
+      <c r="B266" s="1">
         <v>9.3437231026759395</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="5" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B267" s="1">
         <v>9.6382139538614098</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="5" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="6">
+      <c r="B268" s="1">
         <v>9.8838798948013693</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="5" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B269" s="6">
+      <c r="B269" s="1">
         <v>10.0564247219094</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="5" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B270" s="6">
+      <c r="B270" s="1">
         <v>10.199839643789399</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="5" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B271" s="6">
+      <c r="B271" s="1">
         <v>10.3066875511982</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B272" s="1">
         <v>10.407441671110799</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="5" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B273" s="6">
+      <c r="B273" s="1">
         <v>10.516647583476299</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="5" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B274" s="6">
+      <c r="B274" s="1">
         <v>10.609584269261999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="5" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="6">
+      <c r="B275" s="1">
         <v>10.683422977311601</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B276" s="6">
+      <c r="B276" s="1">
         <v>10.7898503743119</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B277" s="1">
         <v>10.915342738584</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B278" s="6">
+      <c r="B278" s="1">
         <v>11.1863740967847</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B279" s="6">
+      <c r="B279" s="1">
         <v>11.449679866825701</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B280" s="6">
+      <c r="B280" s="1">
         <v>11.657778465389301</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="5" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B281" s="6">
+      <c r="B281" s="1">
         <v>11.795900435066001</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="5" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="1">
         <v>11.915947720290401</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B283" s="1">
         <v>12.0221713196406</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B284" s="6">
+      <c r="B284" s="1">
         <v>12.101437891772299</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B285" s="6">
+      <c r="B285" s="1">
         <v>12.1833451921855</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B286" s="6">
+      <c r="B286" s="1">
         <v>12.260272414520101</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B287" s="6">
+      <c r="B287" s="1">
         <v>12.335592231401399</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B288" s="6">
+      <c r="B288" s="1">
         <v>12.4428965245267</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="5" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B289" s="6">
+      <c r="B289" s="1">
         <v>12.532493537791501</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="5" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B290" s="6">
+      <c r="B290" s="1">
         <v>12.6366203406883</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="5" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B291" s="6">
+      <c r="B291" s="1">
         <v>12.816553481441201</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B292" s="6">
+      <c r="B292" s="1">
         <v>12.9773197638673</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B293" s="6">
+      <c r="B293" s="1">
         <v>13.083345310799199</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="5" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B294" s="6">
+      <c r="B294" s="1">
         <v>13.159593689428499</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="5" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B295" s="6">
+      <c r="B295" s="1">
         <v>13.2354804035143</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B296" s="6">
+      <c r="B296" s="1">
         <v>13.311137489729701</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B297" s="6">
+      <c r="B297" s="1">
         <v>13.3857971232443</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B298" s="6">
+      <c r="B298" s="1">
         <v>13.4501234404208</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B299" s="6">
+      <c r="B299" s="1">
         <v>13.522112194854699</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B300" s="6">
+      <c r="B300" s="1">
         <v>13.622260672230899</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B301" s="6">
+      <c r="B301" s="1">
         <v>13.677973025024</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="5" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B302" s="6">
+      <c r="B302" s="1">
         <v>13.7383023563383</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B303" s="6">
+      <c r="B303" s="1">
         <v>13.8430548971257</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="5" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B304" s="6">
+      <c r="B304" s="1">
         <v>13.9503749805667</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B305" s="6">
+      <c r="B305" s="1">
         <v>14.022124062044</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B306" s="1">
         <v>14.0942247629785</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B307" s="6">
+      <c r="B307" s="1">
         <v>14.163251304931901</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B308" s="6">
+      <c r="B308" s="1">
         <v>14.231682244252999</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B309" s="6">
+      <c r="B309" s="1">
         <v>14.302894568964501</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B310" s="6">
+      <c r="B310" s="1">
         <v>14.3663267698675</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B311" s="6">
+      <c r="B311" s="1">
         <v>14.433286645444401</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B312" s="6">
+      <c r="B312" s="1">
         <v>14.535936644548199</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B313" s="6">
+      <c r="B313" s="1">
         <v>14.6122453040552</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="5" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B314" s="6">
+      <c r="B314" s="1">
         <v>14.690360856448001</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="5" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B315" s="6">
+      <c r="B315" s="1">
         <v>14.819204368159101</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B316" s="6">
+      <c r="B316" s="1">
         <v>15.3769909442995</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="5" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B317" s="6">
+      <c r="B317" s="1">
         <v>16.0287073487094</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="5" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B318" s="6">
+      <c r="B318" s="1">
         <v>16.973617202950098</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B319" s="6">
+      <c r="B319" s="1">
         <v>18.326133255311301</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B320" s="6">
+      <c r="B320" s="1">
         <v>19.092090190991801</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="5" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B321" s="6">
+      <c r="B321" s="1">
         <v>19.698024268685</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="5" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B322" s="6">
+      <c r="B322" s="1">
         <v>20.099588355293999</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B323" s="6">
+      <c r="B323" s="1">
         <v>20.432981265710101</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B324" s="6">
+      <c r="B324" s="1">
         <v>20.8556425301303</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B325" s="6">
+      <c r="B325" s="1">
         <v>21.284762116614601</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B326" s="6">
+      <c r="B326" s="1">
         <v>21.809608384347801</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="5" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B327" s="6">
+      <c r="B327" s="1">
         <v>22.520167271191902</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="5" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B328" s="6">
+      <c r="B328" s="1">
         <v>23.3297537612935</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="5" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B329" s="6">
+      <c r="B329" s="1">
         <v>23.8742620287622</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B330" s="6">
+      <c r="B330" s="1">
         <v>24.399825880353401</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B331" s="6">
+      <c r="B331" s="1">
         <v>25.0934496172036</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="5" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B332" s="6">
+      <c r="B332" s="1">
         <v>25.550842302962199</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B333" s="6">
+      <c r="B333" s="1">
         <v>25.966901728547398</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B334" s="6">
+      <c r="B334" s="1">
         <v>26.336030688063399</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B335" s="6">
+      <c r="B335" s="1">
         <v>26.6860717149303</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B336" s="6">
+      <c r="B336" s="1">
         <v>27.1127514903968</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="5" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B337" s="6">
+      <c r="B337" s="1">
         <v>27.451167539620801</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="5" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B338" s="6">
+      <c r="B338" s="1">
         <v>27.867083448433601</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B339" s="6">
+      <c r="B339" s="1">
         <v>28.7593364537036</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="5" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B340" s="6">
+      <c r="B340" s="1">
         <v>29.4988860288599</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="5" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B341" s="6">
+      <c r="B341" s="1">
         <v>29.994598091509399</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="5" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B342" s="6">
+      <c r="B342" s="1">
         <v>30.367889073662798</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B343" s="6">
+      <c r="B343" s="1">
         <v>30.695971811728501</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B344" s="6">
+      <c r="B344" s="1">
         <v>30.976119445603</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="5" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B345" s="6">
+      <c r="B345" s="1">
         <v>31.2509569123077</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B346" s="6">
+      <c r="B346" s="1">
         <v>31.523211040861099</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="5" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B347" s="6">
+      <c r="B347" s="1">
         <v>31.803502196687798</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="5" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B348" s="6">
+      <c r="B348" s="1">
         <v>32.199612588994199</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="5" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B349" s="6">
+      <c r="B349" s="1">
         <v>32.456940823077602</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B350" s="6">
+      <c r="B350" s="1">
         <v>32.820042010844297</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="5" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B351" s="6">
+      <c r="B351" s="1">
         <v>33.2798745076214</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="5" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B352" s="6">
+      <c r="B352" s="1">
         <v>34.003924110859998</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B353" s="6">
+      <c r="B353" s="1">
         <v>34.599237843852499</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B354" s="6">
+      <c r="B354" s="1">
         <v>35.004533397603502</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B355" s="6">
+      <c r="B355" s="1">
         <v>35.332042063402199</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="5" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B356" s="6">
+      <c r="B356" s="1">
         <v>35.613481363762098</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="5" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B357" s="6">
+      <c r="B357" s="1">
         <v>36.034420411382101</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="5" t="s">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B358" s="6">
+      <c r="B358" s="1">
         <v>36.381878110459603</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B359" s="6">
+      <c r="B359" s="1">
         <v>36.731632103784001</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="5" t="s">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B360" s="6">
+      <c r="B360" s="1">
         <v>37.327376387090602</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="5" t="s">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B361" s="6">
+      <c r="B361" s="1">
         <v>37.862268927258199</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="5" t="s">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B362" s="6">
+      <c r="B362" s="1">
         <v>38.532786225593497</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="5" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B363" s="6">
+      <c r="B363" s="1">
         <v>39.472974324693503</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B364" s="6">
+      <c r="B364" s="1">
         <v>40.469770280540402</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="5" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B365" s="6">
+      <c r="B365" s="1">
         <v>41.013642812363997</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="5" t="s">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B366" s="6">
+      <c r="B366" s="1">
         <v>41.394683783066903</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="5" t="s">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B367" s="6">
+      <c r="B367" s="1">
         <v>41.774576609236597</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="5" t="s">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B368" s="6">
+      <c r="B368" s="1">
         <v>42.025877076750398</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="5" t="s">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B369" s="6">
+      <c r="B369" s="1">
         <v>42.302006204759103</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="5" t="s">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B370" s="6">
+      <c r="B370" s="1">
         <v>42.581579771548</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="5" t="s">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B371" s="6">
+      <c r="B371" s="1">
         <v>42.821255256238402</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="5" t="s">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B372" s="6">
+      <c r="B372" s="1">
         <v>43.235018392756501</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="5" t="s">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B373" s="6">
+      <c r="B373" s="1">
         <v>43.508851226518999</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="5" t="s">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B374" s="6">
+      <c r="B374" s="1">
         <v>43.895776447019799</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="5" t="s">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B375" s="6">
+      <c r="B375" s="1">
         <v>44.335516388565999</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="5" t="s">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B376" s="6">
+      <c r="B376" s="1">
         <v>44.930830116377898</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="5" t="s">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B377" s="6">
+      <c r="B377" s="1">
         <v>45.3293803145216</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="5" t="s">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B378" s="6">
+      <c r="B378" s="1">
         <v>45.580680782035401</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="5" t="s">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B379" s="6">
+      <c r="B379" s="1">
         <v>45.840018271641902</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="5" t="s">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B380" s="6">
+      <c r="B380" s="1">
         <v>46.011379073728897</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="5" t="s">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B381" s="6">
+      <c r="B381" s="1">
         <v>46.283920241006101</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="5" t="s">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B382" s="6">
+      <c r="B382" s="1">
         <v>46.464466209718097</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="5" t="s">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B383" s="6">
+      <c r="B383" s="1">
         <v>46.719785188278301</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="5" t="s">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B384" s="6">
+      <c r="B384" s="1">
         <v>47.0610716040147</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="5" t="s">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B385" s="6">
+      <c r="B385" s="1">
         <v>47.385135825853403</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="5" t="s">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B386" s="6">
+      <c r="B386" s="1">
         <v>47.790287862832798</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="5" t="s">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B387" s="6">
+      <c r="B387" s="1">
         <v>48.307671180741004</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="5" t="s">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B388" s="6">
+      <c r="B388" s="1">
         <v>48.575476247934098</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B389" s="6">
+      <c r="B389" s="1">
         <v>48.543328159564901</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="5" t="s">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B390" s="6">
+      <c r="B390" s="1">
         <v>48.850887781724403</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="5" t="s">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B391" s="6">
+      <c r="B391" s="1">
         <v>49.0973086323825</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="5" t="s">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B392" s="6">
+      <c r="B392" s="1">
         <v>49.209970463625403</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B393" s="6">
+      <c r="B393" s="1">
         <v>49.326363767191502</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="5" t="s">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B394" s="6">
+      <c r="B394" s="1">
         <v>49.198201964030297</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="5" t="s">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B395" s="6">
+      <c r="B395" s="1">
         <v>49.489687547185802</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="5" t="s">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B396" s="6">
+      <c r="B396" s="1">
         <v>49.950381149772397</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="5" t="s">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B397" s="6">
+      <c r="B397" s="1">
         <v>50.176135367753503</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="5" t="s">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B398" s="6">
+      <c r="B398" s="1">
         <v>50.3651489088722</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="5" t="s">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B399" s="6">
+      <c r="B399" s="1">
         <v>50.434898785092997</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="5" t="s">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B400" s="6">
+      <c r="B400" s="1">
         <v>50.900472009715898</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="5" t="s">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B401" s="6">
+      <c r="B401" s="1">
         <v>50.867749849080496</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="5" t="s">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B402" s="6">
+      <c r="B402" s="1">
         <v>51.127948444496397</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="5" t="s">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B403" s="6">
+      <c r="B403" s="1">
         <v>51.407234972561497</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="5" t="s">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B404" s="6">
+      <c r="B404" s="1">
         <v>51.511429231397599</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="5" t="s">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B405" s="6">
+      <c r="B405" s="1">
         <v>51.762586176959203</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="5" t="s">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B406" s="6">
+      <c r="B406" s="1">
         <v>51.911181353361798</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="5" t="s">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B407" s="6">
+      <c r="B407" s="1">
         <v>52.108560301264298</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="5" t="s">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B408" s="6">
+      <c r="B408" s="1">
         <v>52.4219835649941</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="5" t="s">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B409" s="6">
+      <c r="B409" s="1">
         <v>52.653036086685702</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="5" t="s">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A410" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B410" s="6">
+      <c r="B410" s="1">
         <v>53.0788772813736</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="5" t="s">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A411" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B411" s="6">
+      <c r="B411" s="1">
         <v>53.309929803065103</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="5" t="s">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A412" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B412" s="6">
+      <c r="B412" s="1">
         <v>53.525440675315501</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="5" t="s">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A413" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B413" s="6">
+      <c r="B413" s="1">
         <v>53.674122454969499</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A414" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B414" s="6">
+      <c r="B414" s="1">
         <v>54.012930412786197</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="5" t="s">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A415" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B415" s="6">
+      <c r="B415" s="1">
         <v>54.105144199470402</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A416" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B416" s="6">
+      <c r="B416" s="1">
         <v>53.9305596707487</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="5" t="s">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A417" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B417" s="6">
+      <c r="B417" s="1">
         <v>53.975112399146603</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="5" t="s">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A418" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B418" s="6">
+      <c r="B418" s="1">
         <v>54.053338701333502</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="5" t="s">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A419" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B419" s="6">
+      <c r="B419" s="1">
         <v>54.215489910502399</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A420" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B420" s="6">
+      <c r="B420" s="1">
         <v>54.538238163897297</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A421" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B421" s="6">
+      <c r="B421" s="1">
         <v>54.738207386706698</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A422" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B422" s="6">
+      <c r="B422" s="1">
         <v>55.192541605369897</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A423" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B423" s="6">
+      <c r="B423" s="1">
         <v>55.429810786838097</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" s="5" t="s">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A424" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B424" s="6">
+      <c r="B424" s="1">
         <v>55.774317349450101</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="5" t="s">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A425" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B425" s="6">
+      <c r="B425" s="1">
         <v>56.107944757453097</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" s="5" t="s">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A426" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B426" s="6">
+      <c r="B426" s="1">
         <v>56.2980709356166</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" s="5" t="s">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A427" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B427" s="6">
+      <c r="B427" s="1">
         <v>56.383031952561801</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="5" t="s">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A428" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B428" s="6">
+      <c r="B428" s="1">
         <v>56.2416029426468</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" s="5" t="s">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A429" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B429" s="6">
+      <c r="B429" s="1">
         <v>56.331744509405603</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" s="5" t="s">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A430" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B430" s="6">
+      <c r="B430" s="1">
         <v>56.479390179096498</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="5" t="s">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A431" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B431" s="6">
+      <c r="B431" s="1">
         <v>56.828041181559897</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" s="5" t="s">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A432" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B432" s="6">
+      <c r="B432" s="1">
         <v>57.2979170496642</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" s="5" t="s">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A433" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B433" s="6">
+      <c r="B433" s="1">
         <v>57.694747165394602</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="5" t="s">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A434" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B434" s="6">
+      <c r="B434" s="1">
         <v>58.186899397697402</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" s="5" t="s">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A435" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B435" s="6">
+      <c r="B435" s="1">
         <v>58.3070881533761</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" s="5" t="s">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A436" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B436" s="6">
+      <c r="B436" s="1">
         <v>58.309160373301403</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="5" t="s">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A437" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B437" s="6">
+      <c r="B437" s="1">
         <v>58.503430991315597</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" s="5" t="s">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A438" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B438" s="6">
+      <c r="B438" s="1">
         <v>58.767120976833802</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" s="5" t="s">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A439" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B439" s="6">
+      <c r="B439" s="1">
         <v>58.976415189308199</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="5" t="s">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A440" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B440" s="6">
+      <c r="B440" s="1">
         <v>58.828251464635798</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" s="5" t="s">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A441" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B441" s="6">
+      <c r="B441" s="1">
         <v>58.771783471665998</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" s="5" t="s">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A442" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B442" s="6">
+      <c r="B442" s="1">
         <v>59.001799883395201</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="5" t="s">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A443" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B443" s="6">
+      <c r="B443" s="1">
         <v>59.072255360861497</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" s="5" t="s">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A444" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B444" s="6">
+      <c r="B444" s="1">
         <v>59.309006487348199</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" s="5" t="s">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A445" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B445" s="6">
+      <c r="B445" s="1">
         <v>59.454579937113898</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="5" t="s">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A446" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B446" s="6">
+      <c r="B446" s="1">
         <v>59.882493351727099</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" s="5" t="s">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A447" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B447" s="6">
+      <c r="B447" s="1">
         <v>60.250312388500703</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" s="5" t="s">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A448" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B448" s="6">
+      <c r="B448" s="1">
         <v>60.603625885796198</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="5" t="s">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A449" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B449" s="6">
+      <c r="B449" s="1">
         <v>60.696357727461802</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" s="5" t="s">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A450" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B450" s="6">
+      <c r="B450" s="1">
         <v>60.772511809723397</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" s="5" t="s">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A451" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B451" s="6">
+      <c r="B451" s="1">
         <v>60.861617266519197</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="5" t="s">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A452" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B452" s="6">
+      <c r="B452" s="1">
         <v>60.590674511261902</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" s="5" t="s">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A453" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B453" s="6">
+      <c r="B453" s="1">
         <v>60.6429980643804</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" s="5" t="s">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A454" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B454" s="6">
+      <c r="B454" s="1">
         <v>60.809293713400699</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="5" t="s">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A455" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B455" s="6">
+      <c r="B455" s="1">
         <v>61.119608647242202</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" s="5" t="s">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A456" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B456" s="6">
+      <c r="B456" s="1">
         <v>61.736612130055903</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" s="5" t="s">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A457" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B457" s="6">
+      <c r="B457" s="1">
         <v>62.006518775350798</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="5" t="s">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A458" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B458" s="6">
+      <c r="B458" s="1">
         <v>62.331857303651802</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" s="5" t="s">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A459" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B459" s="6">
+      <c r="B459" s="1">
         <v>62.692423570686302</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" s="5" t="s">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A460" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B460" s="6">
+      <c r="B460" s="1">
         <v>63.0162079340435</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="5" t="s">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A461" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B461" s="6">
+      <c r="B461" s="1">
         <v>63.192346627710499</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" s="5" t="s">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A462" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B462" s="6">
+      <c r="B462" s="1">
         <v>63.329113142792501</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" s="5" t="s">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A463" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B463" s="6">
+      <c r="B463" s="1">
         <v>63.291295129152097</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="5" t="s">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A464" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B464" s="6">
+      <c r="B464" s="1">
         <v>62.982534360254498</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" s="5" t="s">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A465" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B465" s="6">
+      <c r="B465" s="1">
         <v>63.058170387534602</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" s="5" t="s">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A466" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B466" s="6">
+      <c r="B466" s="1">
         <v>63.326004812904202</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="5" t="s">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A467" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B467" s="6">
+      <c r="B467" s="1">
         <v>63.5839961936272</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" s="5" t="s">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A468" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B468" s="6">
+      <c r="B468" s="1">
         <v>64.077702590874594</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" s="5" t="s">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A469" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B469" s="6">
+      <c r="B469" s="1">
         <v>64.3274050918955</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="5" t="s">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A470" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B470" s="6">
+      <c r="B470" s="1">
         <v>64.781221255577293</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" s="5" t="s">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A471" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B471" s="6">
+      <c r="B471" s="1">
         <v>65.049055680946097</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" s="5" t="s">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A472" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B472" s="6">
+      <c r="B472" s="1">
         <v>65.350563680104003</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="5" t="s">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A473" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B473" s="6">
+      <c r="B473" s="1">
         <v>65.5448342981189</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" s="5" t="s">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A474" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B474" s="6">
+      <c r="B474" s="1">
         <v>66.019890716036102</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" s="5" t="s">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A475" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B475" s="6">
+      <c r="B475" s="1">
         <v>66.170126660633898</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="5" t="s">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A476" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B476" s="6">
+      <c r="B476" s="1">
         <v>66.098635073205301</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" s="5" t="s">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A477" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B477" s="6">
+      <c r="B477" s="1">
         <v>66.372168103369305</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" s="5" t="s">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A478" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B478" s="6">
+      <c r="B478" s="1">
         <v>66.742059360068197</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="5" t="s">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A479" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B479" s="6">
+      <c r="B479" s="1">
         <v>67.127492266208904</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" s="5" t="s">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A480" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B480" s="6">
+      <c r="B480" s="1">
         <v>67.584934814759706</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" s="5" t="s">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A481" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B481" s="6">
+      <c r="B481" s="1">
         <v>68.045485693199694</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="5" t="s">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A482" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B482" s="6">
+      <c r="B482" s="1">
         <v>68.818941780387206</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" s="5" t="s">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A483" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B483" s="6">
+      <c r="B483" s="1">
         <v>69.295552363249001</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" s="5" t="s">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A484" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B484" s="6">
+      <c r="B484" s="1">
         <v>69.4561494074742</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="5" t="s">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A485" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B485" s="6">
+      <c r="B485" s="1">
         <v>69.609493681960302</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" s="5" t="s">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A486" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B486" s="6">
+      <c r="B486" s="1">
         <v>70.009950182560502</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" s="5" t="s">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A487" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B487" s="6">
+      <c r="B487" s="1">
         <v>70.254990188749304</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="5" t="s">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A488" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B488" s="6">
+      <c r="B488" s="1">
         <v>70.050358471107799</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" s="5" t="s">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A489" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B489" s="6">
+      <c r="B489" s="1">
         <v>70.179354161469305</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" s="5" t="s">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A490" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B490" s="6">
+      <c r="B490" s="1">
         <v>70.370516449595101</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="5" t="s">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A491" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B491" s="6">
+      <c r="B491" s="1">
         <v>70.538884318540795</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" s="5" t="s">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A492" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B492" s="6">
+      <c r="B492" s="1">
         <v>70.892715870817796</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" s="5" t="s">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A493" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B493" s="6">
+      <c r="B493" s="1">
         <v>71.107190633106001</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="5" t="s">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A494" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B494" s="6">
+      <c r="B494" s="1">
         <v>71.476045779842494</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" s="5" t="s">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A495" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B495" s="6">
+      <c r="B495" s="1">
         <v>71.7718551742052</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" s="5" t="s">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A496" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B496" s="6">
+      <c r="B496" s="1">
         <v>72.552045976150893</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="5" t="s">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A497" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B497" s="6">
+      <c r="B497" s="1">
         <v>72.971670511062101</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" s="5" t="s">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A498" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B498" s="6">
+      <c r="B498" s="1">
         <v>73.489725492434204</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" s="5" t="s">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A499" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B499" s="6">
+      <c r="B499" s="1">
         <v>73.255564640853606</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="5" t="s">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A500" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B500" s="6">
+      <c r="B500" s="1">
         <v>72.793977652452099</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" s="5" t="s">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A501" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B501" s="6">
+      <c r="B501" s="1">
         <v>72.771183233271202</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" s="5" t="s">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A502" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B502" s="6">
+      <c r="B502" s="1">
         <v>72.929190002589607</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" s="5" t="s">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A503" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B503" s="6">
+      <c r="B503" s="1">
         <v>73.131749500305801</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" s="5" t="s">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A504" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B504" s="6">
+      <c r="B504" s="1">
         <v>73.515110186521099</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" s="5" t="s">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A505" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B505" s="6">
+      <c r="B505" s="1">
         <v>73.968926350202807</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" s="5" t="s">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A506" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B506" s="6">
+      <c r="B506" s="1">
         <v>74.561581248891898</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" s="5" t="s">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A507" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B507" s="6">
+      <c r="B507" s="1">
         <v>74.930954450610002</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" s="5" t="s">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A508" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B508" s="6">
+      <c r="B508" s="1">
         <v>75.295991345633695</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" s="5" t="s">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A509" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B509" s="6">
+      <c r="B509" s="1">
         <v>75.578460244005001</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" s="5" t="s">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A510" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B510" s="6">
+      <c r="B510" s="1">
         <v>75.723450928541396</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" s="5" t="s">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A511" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B511" s="6">
+      <c r="B511" s="1">
         <v>75.717440951980294</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" s="5" t="s">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A512" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B512" s="6">
+      <c r="B512" s="1">
         <v>75.159264378868897</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" s="5" t="s">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A513" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B513" s="6">
+      <c r="B513" s="1">
         <v>75.155508143518205</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" s="5" t="s">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A514" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B514" s="6">
+      <c r="B514" s="1">
         <v>75.516106737183705</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" s="5" t="s">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A515" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B515" s="6">
+      <c r="B515" s="1">
         <v>75.635555021335406</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" s="5" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A516" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B516" s="6">
+      <c r="B516" s="1">
         <v>75.821113047659097</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" s="5" t="s">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A517" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B517" s="6">
+      <c r="B517" s="1">
         <v>76.332712302421996</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" s="5" t="s">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A518" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B518" s="6">
+      <c r="B518" s="1">
         <v>77.158332832501898</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" s="5" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A519" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B519" s="6">
+      <c r="B519" s="1">
         <v>77.792385359697107</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" s="5" t="s">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A520" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B520" s="6">
+      <c r="B520" s="1">
         <v>78.343049462107103</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" s="5" t="s">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A521" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B521" s="6">
+      <c r="B521" s="1">
         <v>78.502313840976001</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" s="5" t="s">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A522" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B522" s="6">
+      <c r="B522" s="1">
         <v>78.547388665184201</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" s="5" t="s">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A523" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B523" s="6">
+      <c r="B523" s="1">
         <v>78.300979626179497</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" s="5" t="s">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A524" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B524" s="6">
+      <c r="B524" s="1">
         <v>78.053819340104596</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" s="5" t="s">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A525" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B525" s="6">
+      <c r="B525" s="1">
         <v>78.413666686699898</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" s="5" t="s">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A526" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B526" s="6">
+      <c r="B526" s="1">
         <v>78.853897469799904</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" s="5" t="s">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A527" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B527" s="6">
+      <c r="B527" s="1">
         <v>79.090540296892797</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" s="5" t="s">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A528" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B528" s="6">
+      <c r="B528" s="1">
         <v>79.439118937436106</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" s="5" t="s">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A529" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B529" s="6">
+      <c r="B529" s="1">
         <v>79.841036119959099</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" s="5" t="s">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A530" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B530" s="6">
+      <c r="B530" s="1">
         <v>80.383436504597597</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" s="5" t="s">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A531" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B531" s="6">
+      <c r="B531" s="1">
         <v>80.568243283851203</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" s="5" t="s">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A532" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B532" s="6">
+      <c r="B532" s="1">
         <v>80.8927820181501</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" s="5" t="s">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A533" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B533" s="6">
+      <c r="B533" s="1">
         <v>81.290942965322401</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" s="5" t="s">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A534" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B534" s="6">
+      <c r="B534" s="1">
         <v>81.887433139010795</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" s="5" t="s">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A535" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B535" s="6">
+      <c r="B535" s="1">
         <v>81.941522928060607</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" s="5" t="s">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A536" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B536" s="6">
+      <c r="B536" s="1">
         <v>81.668820241601097</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" s="5" t="s">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A537" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B537" s="6">
+      <c r="B537" s="1">
         <v>81.619237934972006</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" s="5" t="s">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A538" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B538" s="6">
+      <c r="B538" s="1">
         <v>81.5921930404471</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" s="5" t="s">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A539" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B539" s="6">
+      <c r="B539" s="1">
         <v>81.824328385119301</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" s="5" t="s">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A540" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B540" s="6">
+      <c r="B540" s="1">
         <v>82.132339683875202</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" s="5" t="s">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A541" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B541" s="6">
+      <c r="B541" s="1">
         <v>82.522988160346202</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" s="5" t="s">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A542" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B542" s="6">
+      <c r="B542" s="1">
         <v>83.292265160165897</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="5" t="s">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A543" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B543" s="6">
+      <c r="B543" s="1">
         <v>83.770058296772604</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="5" t="s">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A544" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B544" s="6">
+      <c r="B544" s="1">
         <v>84.519051625698694</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="5" t="s">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A545" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B545" s="6">
+      <c r="B545" s="1">
         <v>84.733157040687601</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="5" t="s">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A546" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B546" s="6">
+      <c r="B546" s="1">
         <v>84.965292385359703</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="5" t="s">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A547" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B547" s="6">
+      <c r="B547" s="1">
         <v>84.806779253560904</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="5" t="s">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A548" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B548" s="6">
+      <c r="B548" s="1">
         <v>84.535579061241705</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="5" t="s">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A549" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B549" s="6">
+      <c r="B549" s="1">
         <v>84.682072239918298</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="5" t="s">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A550" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B550" s="6">
+      <c r="B550" s="1">
         <v>84.914958831660599</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="5" t="s">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A551" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B551" s="6">
+      <c r="B551" s="1">
         <v>85.219965142135905</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="5" t="s">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A552" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B552" s="6">
+      <c r="B552" s="1">
         <v>85.596339924274304</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="5" t="s">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A553" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B553" s="6">
+      <c r="B553" s="1">
         <v>86.069625578460204</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="5" t="s">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A554" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B554" s="6">
+      <c r="B554" s="1">
         <v>86.763777871266299</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="5" t="s">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A555" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B555" s="6">
+      <c r="B555" s="1">
         <v>87.188983712963505</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="5" t="s">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A556" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B556" s="6">
+      <c r="B556" s="1">
         <v>87.110102770599198</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="5" t="s">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A557" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B557" s="6">
+      <c r="B557" s="1">
         <v>87.275377126029198</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="5" t="s">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A558" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B558" s="6">
+      <c r="B558" s="1">
         <v>87.630716990203695</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="5" t="s">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A559" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B559" s="6">
+      <c r="B559" s="1">
         <v>87.403840375022497</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="5" t="s">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A560" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B560" s="6">
+      <c r="B560" s="1">
         <v>86.967365827273298</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="5" t="s">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A561" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B561" s="6">
+      <c r="B561" s="1">
         <v>87.113107758879707</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="5" t="s">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A562" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B562" s="6">
+      <c r="B562" s="1">
         <v>87.240819760802907</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="5" t="s">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A563" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B563" s="6">
+      <c r="B563" s="1">
         <v>87.4248752929864</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="5" t="s">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A564" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B564" s="6">
+      <c r="B564" s="1">
         <v>87.752419015565806</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="5" t="s">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A565" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B565" s="6">
+      <c r="B565" s="1">
         <v>88.203918504717805</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="5" t="s">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A566" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B566" s="6">
+      <c r="B566" s="1">
         <v>88.685467876675304</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="5" t="s">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A567" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B567" s="6">
+      <c r="B567" s="1">
         <v>89.046817717410903</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="5" t="s">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A568" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B568" s="6">
+      <c r="B568" s="1">
         <v>89.3863813931126</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="5" t="s">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A569" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B569" s="6">
+      <c r="B569" s="1">
         <v>89.7777811166536</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="5" t="s">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A570" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B570" s="6">
+      <c r="B570" s="1">
         <v>89.910000600997606</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="5" t="s">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A571" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B571" s="6">
+      <c r="B571" s="1">
         <v>89.625277961415904</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="5" t="s">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A572" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B572" s="6">
+      <c r="B572" s="1">
         <v>89.225614520103406</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="5" t="s">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A573" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B573" s="6">
+      <c r="B573" s="1">
         <v>89.324027886291205</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="5" t="s">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A574" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B574" s="6">
+      <c r="B574" s="1">
         <v>89.556914478033505</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="5" t="s">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A575" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B575" s="6">
+      <c r="B575" s="1">
         <v>89.809333493599397</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="5" t="s">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A576" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B576" s="6">
+      <c r="B576" s="1">
         <v>90.357743854798997</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="5" t="s">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A577" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B577" s="6">
+      <c r="B577" s="1">
         <v>90.906154215998598</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="5" t="s">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A578" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B578" s="6">
+      <c r="B578" s="1">
         <v>91.616833944347604</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="5" t="s">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A579" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B579" s="6">
+      <c r="B579" s="1">
         <v>92.039034797764302</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="5" t="s">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A580" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B580" s="6">
+      <c r="B580" s="1">
         <v>93.603882444858499</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="5" t="s">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A581" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B581" s="6">
+      <c r="B581" s="1">
         <v>94.1447803353567</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="5" t="s">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A582" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B582" s="6">
+      <c r="B582" s="1">
         <v>94.722489332291602</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="5" t="s">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A583" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B583" s="6">
+      <c r="B583" s="1">
         <v>94.838932628162794</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="5" t="s">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A584" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B584" s="6">
+      <c r="B584" s="1">
         <v>94.725494320572096</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="5" t="s">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A585" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B585" s="6">
+      <c r="B585" s="1">
         <v>94.963639641805401</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="5" t="s">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A586" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B586" s="6">
+      <c r="B586" s="1">
         <v>95.322735741330604</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="5" t="s">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A587" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B587" s="6">
+      <c r="B587" s="1">
         <v>95.793767654306095</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="5" t="s">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A588" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B588" s="6">
+      <c r="B588" s="1">
         <v>96.093515235290596</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="5" t="s">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A589" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B589" s="6">
+      <c r="B589" s="1">
         <v>96.698269126750404</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="5" t="s">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A590" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B590" s="6">
+      <c r="B590" s="1">
         <v>97.695173988821495</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="5" t="s">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A591" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B591" s="6">
+      <c r="B591" s="1">
         <v>98.272882985756297</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="5" t="s">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A592" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B592" s="6">
+      <c r="B592" s="1">
         <v>98.794999699501204</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="5" t="s">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A593" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B593" s="6">
+      <c r="B593" s="1">
         <v>99.171374481639504</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="5" t="s">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A594" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B594" s="6">
+      <c r="B594" s="1">
         <v>99.492156980587794</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="5" t="s">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A595" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B595" s="6">
+      <c r="B595" s="1">
         <v>99.154847046096506</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="5" t="s">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A596" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B596" s="6">
+      <c r="B596" s="1">
         <v>98.994080173087298</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="5" t="s">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A597" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B597" s="6">
+      <c r="B597" s="1">
         <v>99.376464931786799</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="5" t="s">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A598" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B598" s="6">
+      <c r="B598" s="1">
         <v>99.909099104513501</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="5" t="s">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A599" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B599" s="6">
+      <c r="B599" s="1">
         <v>100.492</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="5" t="s">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A600" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B600" s="6">
+      <c r="B600" s="1">
         <v>100.917</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="5" t="s">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A601" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B601" s="6">
+      <c r="B601" s="1">
         <v>101.44</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="5" t="s">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A602" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B602" s="6">
+      <c r="B602" s="1">
         <v>102.303</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="5" t="s">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A603" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B603" s="6">
+      <c r="B603" s="1">
         <v>103.02</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="5" t="s">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A604" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B604" s="6">
+      <c r="B604" s="1">
         <v>103.108</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="5" t="s">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A605" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B605" s="6">
+      <c r="B605" s="1">
         <v>103.07899999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="5" t="s">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A606" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B606" s="6">
+      <c r="B606" s="1">
         <v>103.476</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="5" t="s">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A607" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B607" s="6">
+      <c r="B607" s="1">
         <v>103.53100000000001</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="5" t="s">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A608" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B608" s="6">
+      <c r="B608" s="1">
         <v>103.233</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="5" t="s">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A609" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B609" s="6">
+      <c r="B609" s="1">
         <v>103.29900000000001</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="5" t="s">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A610" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B610" s="6">
+      <c r="B610" s="1">
         <v>103.687</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="5" t="s">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A611" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B611" s="6">
+      <c r="B611" s="1">
         <v>103.67</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="5" t="s">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A612" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B612" s="6">
+      <c r="B612" s="1">
         <v>103.94199999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="5" t="s">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A613" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B613" s="6">
+      <c r="B613" s="1">
         <v>104.503</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="5" t="s">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A614" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B614" s="6">
+      <c r="B614" s="1">
         <v>105.346</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="5" t="s">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A615" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B615" s="6">
+      <c r="B615" s="1">
         <v>105.934</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="5" t="s">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A616" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B616" s="6">
+      <c r="B616" s="1">
         <v>106.447</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" s="5" t="s">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A617" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B617" s="6">
+      <c r="B617" s="1">
         <v>106.889</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" s="5" t="s">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A618" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B618" s="6">
+      <c r="B618" s="1">
         <v>106.83799999999999</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" s="5" t="s">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A619" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B619" s="6">
+      <c r="B619" s="1">
         <v>105.755</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" s="5" t="s">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A620" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B620" s="6">
+      <c r="B620" s="1">
         <v>106.16200000000001</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" s="5" t="s">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A621" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B621" s="6">
+      <c r="B621" s="1">
         <v>106.74299999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" s="5" t="s">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A622" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B622" s="6">
+      <c r="B622" s="1">
         <v>107.444</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" s="5" t="s">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A623" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B623" s="6">
+      <c r="B623" s="1">
         <v>107.867</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" s="5" t="s">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A624" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B624" s="6">
+      <c r="B624" s="1">
         <v>108.114</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" s="5" t="s">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A625" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B625" s="6">
+      <c r="B625" s="1">
         <v>108.774</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" s="5" t="s">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A626" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B626" s="6">
+      <c r="B626" s="1">
         <v>108.85599999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" s="5" t="s">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A627" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B627" s="6">
+      <c r="B627" s="1">
         <v>109.271</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" s="5" t="s">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A628" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B628" s="6">
+      <c r="B628" s="1">
         <v>110.21</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" s="5" t="s">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A629" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B629" s="6">
+      <c r="B629" s="1">
         <v>110.907</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" s="5" t="s">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A630" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B630" s="6">
+      <c r="B630" s="1">
         <v>111.824</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="5" t="s">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A631" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B631" s="6">
+      <c r="B631" s="1">
         <v>112.19</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" s="5" t="s">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A632" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B632" s="6">
+      <c r="B632" s="1">
         <v>112.419</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" s="5" t="s">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A633" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B633" s="6">
+      <c r="B633" s="1">
         <v>113.018</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" s="5" t="s">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A634" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B634" s="6">
+      <c r="B634" s="1">
         <v>113.682</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" s="5" t="s">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A635" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B635" s="6">
+      <c r="B635" s="1">
         <v>113.899</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" s="5" t="s">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A636" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B636" s="6">
+      <c r="B636" s="1">
         <v>114.601</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" s="5" t="s">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A637" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B637" s="6">
+      <c r="B637" s="1">
         <v>115.56100000000001</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" s="5" t="s">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A638" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B638" s="6">
+      <c r="B638" s="1">
         <v>116.884</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" s="5" t="s">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A639" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B639" s="6">
+      <c r="B639" s="1">
         <v>117.30800000000001</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" s="5" t="s">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A640" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B640" s="6">
+      <c r="B640" s="1">
         <v>118.002</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" s="5" t="s">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A641" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B641" s="6">
+      <c r="B641" s="1">
         <v>118.98099999999999</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" s="5" t="s">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A642" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B642" s="6">
+      <c r="B642" s="1">
         <v>120.15900000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" s="5" t="s">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A643" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B643" s="6">
+      <c r="B643" s="1">
         <v>120.809</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" s="5" t="s">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A644" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B644" s="6">
+      <c r="B644" s="1">
         <v>121.02200000000001</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" s="5" t="s">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A645" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B645" s="6">
+      <c r="B645" s="1">
         <v>122.044</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" s="5" t="s">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A646" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B646" s="6">
+      <c r="B646" s="1">
         <v>122.94799999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" s="5" t="s">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A647" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B647" s="6">
+      <c r="B647" s="1">
         <v>123.803</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" s="5" t="s">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A648" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B648" s="6">
+      <c r="B648" s="1">
         <v>124.571</v>
       </c>
     </row>
-    <row r="649" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="7" t="s">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A649" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B649" s="8">
+      <c r="B649" s="1">
         <v>125.276</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" s="10"/>
-      <c r="B650" s="10"/>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" s="9"/>
-      <c r="B651" s="9"/>
-    </row>
-    <row r="652" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="2" t="s">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A650" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B652" s="2"/>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="9" t="s">
+      <c r="B650" s="1">
+        <v>125.997</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A651" s="4"/>
+      <c r="B651" s="4"/>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A652" s="4"/>
+      <c r="B652" s="4"/>
+    </row>
+    <row r="653" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A653" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B654" s="9"/>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
+      <c r="B653" s="2"/>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A654" s="1"/>
+    </row>
+    <row r="655" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A655" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B655" s="4"/>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A656" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A650:B650"/>
     <mergeCell ref="A651:B651"/>
     <mergeCell ref="A652:B652"/>
-    <mergeCell ref="A654:B654"/>
+    <mergeCell ref="A653:B653"/>
+    <mergeCell ref="A655:B655"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
